--- a/PGI master.xlsx
+++ b/PGI master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinwininger/Documents/GitHub/PGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1129C472-DD29-C947-885A-EFC318E1B950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2333999E-ABE0-5C4C-AD4A-6D239CBE21E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18060" xr2:uid="{5BADF4EC-349D-7E4C-A00F-F38B4C4743F7}"/>
   </bookViews>
@@ -3269,15 +3269,9 @@
     <t>Product Type</t>
   </si>
   <si>
-    <t>Donor Advisor</t>
-  </si>
-  <si>
     <t>Visions</t>
   </si>
   <si>
-    <t>Postcard</t>
-  </si>
-  <si>
     <t>IRA</t>
   </si>
   <si>
@@ -3287,13 +3281,7 @@
     <t>SECURE 2.0</t>
   </si>
   <si>
-    <t>Target Mailer</t>
-  </si>
-  <si>
     <t>TCJA</t>
-  </si>
-  <si>
-    <t>Techniques</t>
   </si>
   <si>
     <t>Test</t>
@@ -3390,6 +3378,18 @@
   </si>
   <si>
     <t>Spam Rate</t>
+  </si>
+  <si>
+    <t>Professional Advisor Newsletter</t>
+  </si>
+  <si>
+    <t>Donor-Centric Target Mailer</t>
+  </si>
+  <si>
+    <t>Donor-Centric Newsletter</t>
+  </si>
+  <si>
+    <t>Donor-Centric Postcard</t>
   </si>
 </sst>
 </file>
@@ -3791,9 +3791,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R646"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3815,7 +3815,7 @@
     <col min="15" max="15" width="73.33203125" customWidth="1"/>
     <col min="16" max="16" width="16.83203125" customWidth="1"/>
     <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -3848,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>6</v>
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
@@ -3929,7 +3929,7 @@
         <v>1072</v>
       </c>
       <c r="R2" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
         <v>1073</v>
       </c>
       <c r="R3" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -4043,7 +4043,7 @@
         <v>549</v>
       </c>
       <c r="R4" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>1073</v>
       </c>
       <c r="R5" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -4157,7 +4157,7 @@
         <v>1074</v>
       </c>
       <c r="R6" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -4214,7 +4214,7 @@
         <v>1073</v>
       </c>
       <c r="R7" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>1073</v>
       </c>
       <c r="R8" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -4328,7 +4328,7 @@
         <v>1072</v>
       </c>
       <c r="R9" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -4385,7 +4385,7 @@
         <v>1073</v>
       </c>
       <c r="R10" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -4442,7 +4442,7 @@
         <v>1075</v>
       </c>
       <c r="R11" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -4499,7 +4499,7 @@
         <v>1073</v>
       </c>
       <c r="R12" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -4556,7 +4556,7 @@
         <v>1074</v>
       </c>
       <c r="R13" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -4613,7 +4613,7 @@
         <v>1073</v>
       </c>
       <c r="R14" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>1074</v>
       </c>
       <c r="R15" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>1073</v>
       </c>
       <c r="R16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -4784,7 +4784,7 @@
         <v>1073</v>
       </c>
       <c r="R17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>1075</v>
       </c>
       <c r="R18" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -4898,7 +4898,7 @@
         <v>1072</v>
       </c>
       <c r="R19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -4955,7 +4955,7 @@
         <v>1073</v>
       </c>
       <c r="R20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -5012,7 +5012,7 @@
         <v>1073</v>
       </c>
       <c r="R21" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -5066,10 +5066,10 @@
         <v>750</v>
       </c>
       <c r="Q22" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R22" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -5123,10 +5123,10 @@
         <v>750</v>
       </c>
       <c r="Q23" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R23" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -5180,10 +5180,10 @@
         <v>750</v>
       </c>
       <c r="Q24" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="R24" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -5240,7 +5240,7 @@
         <v>1073</v>
       </c>
       <c r="R25" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -5294,10 +5294,10 @@
         <v>750</v>
       </c>
       <c r="Q26" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R26" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -5354,7 +5354,7 @@
         <v>1074</v>
       </c>
       <c r="R27" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -5411,7 +5411,7 @@
         <v>1073</v>
       </c>
       <c r="R28" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -5468,7 +5468,7 @@
         <v>1072</v>
       </c>
       <c r="R29" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5525,7 +5525,7 @@
         <v>1072</v>
       </c>
       <c r="R30" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -5582,7 +5582,7 @@
         <v>1073</v>
       </c>
       <c r="R31" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -5636,10 +5636,10 @@
         <v>750</v>
       </c>
       <c r="Q32" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R32" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5696,7 +5696,7 @@
         <v>1072</v>
       </c>
       <c r="R33" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>1073</v>
       </c>
       <c r="R34" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -5810,7 +5810,7 @@
         <v>549</v>
       </c>
       <c r="R35" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -5867,7 +5867,7 @@
         <v>1074</v>
       </c>
       <c r="R36" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -5924,7 +5924,7 @@
         <v>549</v>
       </c>
       <c r="R37" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5981,7 +5981,7 @@
         <v>1072</v>
       </c>
       <c r="R38" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -6035,10 +6035,10 @@
         <v>750</v>
       </c>
       <c r="Q39" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R39" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>549</v>
       </c>
       <c r="R40" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -6152,7 +6152,7 @@
         <v>1074</v>
       </c>
       <c r="R41" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>549</v>
       </c>
       <c r="R42" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -6266,7 +6266,7 @@
         <v>1074</v>
       </c>
       <c r="R43" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -6323,7 +6323,7 @@
         <v>1073</v>
       </c>
       <c r="R44" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -6377,10 +6377,10 @@
         <v>750</v>
       </c>
       <c r="Q45" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R45" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -6434,10 +6434,10 @@
         <v>750</v>
       </c>
       <c r="Q46" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R46" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -6491,10 +6491,10 @@
         <v>750</v>
       </c>
       <c r="Q47" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R47" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -6548,10 +6548,10 @@
         <v>750</v>
       </c>
       <c r="Q48" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R48" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -6605,10 +6605,10 @@
         <v>750</v>
       </c>
       <c r="Q49" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R49" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -6662,10 +6662,10 @@
         <v>750</v>
       </c>
       <c r="Q50" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R50" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -6719,10 +6719,10 @@
         <v>750</v>
       </c>
       <c r="Q51" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R51" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -6776,10 +6776,10 @@
         <v>750</v>
       </c>
       <c r="Q52" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="R52" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -6833,10 +6833,10 @@
         <v>750</v>
       </c>
       <c r="Q53" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R53" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -6890,10 +6890,10 @@
         <v>750</v>
       </c>
       <c r="Q54" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R54" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
@@ -6950,7 +6950,7 @@
         <v>1073</v>
       </c>
       <c r="R55" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
@@ -7004,10 +7004,10 @@
         <v>750</v>
       </c>
       <c r="Q56" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R56" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
@@ -7061,10 +7061,10 @@
         <v>750</v>
       </c>
       <c r="Q57" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R57" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
@@ -7121,7 +7121,7 @@
         <v>1073</v>
       </c>
       <c r="R58" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
@@ -7178,7 +7178,7 @@
         <v>1074</v>
       </c>
       <c r="R59" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -7235,7 +7235,7 @@
         <v>1074</v>
       </c>
       <c r="R60" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
@@ -7292,7 +7292,7 @@
         <v>1074</v>
       </c>
       <c r="R61" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
@@ -7349,7 +7349,7 @@
         <v>1073</v>
       </c>
       <c r="R62" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -7403,10 +7403,10 @@
         <v>750</v>
       </c>
       <c r="Q63" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R63" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
@@ -7463,7 +7463,7 @@
         <v>1073</v>
       </c>
       <c r="R64" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -7520,7 +7520,7 @@
         <v>1074</v>
       </c>
       <c r="R65" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
@@ -7577,7 +7577,7 @@
         <v>1072</v>
       </c>
       <c r="R66" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -7634,7 +7634,7 @@
         <v>1074</v>
       </c>
       <c r="R67" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
@@ -7688,10 +7688,10 @@
         <v>750</v>
       </c>
       <c r="Q68" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R68" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
@@ -7745,10 +7745,10 @@
         <v>750</v>
       </c>
       <c r="Q69" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R69" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
@@ -7805,7 +7805,7 @@
         <v>1073</v>
       </c>
       <c r="R70" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -7859,10 +7859,10 @@
         <v>750</v>
       </c>
       <c r="Q71" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R71" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
@@ -7916,10 +7916,10 @@
         <v>750</v>
       </c>
       <c r="Q72" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R72" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
@@ -7973,10 +7973,10 @@
         <v>750</v>
       </c>
       <c r="Q73" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R73" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -8030,10 +8030,10 @@
         <v>750</v>
       </c>
       <c r="Q74" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R74" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -8087,10 +8087,10 @@
         <v>750</v>
       </c>
       <c r="Q75" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R75" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
@@ -8147,7 +8147,7 @@
         <v>1074</v>
       </c>
       <c r="R76" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -8201,10 +8201,10 @@
         <v>750</v>
       </c>
       <c r="Q77" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R77" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
@@ -8258,10 +8258,10 @@
         <v>750</v>
       </c>
       <c r="Q78" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R78" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
@@ -8315,10 +8315,10 @@
         <v>750</v>
       </c>
       <c r="Q79" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R79" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
@@ -8372,10 +8372,10 @@
         <v>750</v>
       </c>
       <c r="Q80" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R80" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -8432,7 +8432,7 @@
         <v>1073</v>
       </c>
       <c r="R81" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
@@ -8489,7 +8489,7 @@
         <v>1073</v>
       </c>
       <c r="R82" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -8546,7 +8546,7 @@
         <v>1073</v>
       </c>
       <c r="R83" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -8603,7 +8603,7 @@
         <v>1073</v>
       </c>
       <c r="R84" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -8657,10 +8657,10 @@
         <v>750</v>
       </c>
       <c r="Q85" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R85" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
@@ -8714,10 +8714,10 @@
         <v>750</v>
       </c>
       <c r="Q86" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R86" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
@@ -8774,7 +8774,7 @@
         <v>1074</v>
       </c>
       <c r="R87" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
@@ -8831,7 +8831,7 @@
         <v>1074</v>
       </c>
       <c r="R88" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
@@ -8888,7 +8888,7 @@
         <v>1074</v>
       </c>
       <c r="R89" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
@@ -8945,7 +8945,7 @@
         <v>1074</v>
       </c>
       <c r="R90" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
@@ -8999,10 +8999,10 @@
         <v>750</v>
       </c>
       <c r="Q91" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R91" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
@@ -9056,10 +9056,10 @@
         <v>750</v>
       </c>
       <c r="Q92" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R92" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
@@ -9113,10 +9113,10 @@
         <v>750</v>
       </c>
       <c r="Q93" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R93" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
@@ -9170,10 +9170,10 @@
         <v>750</v>
       </c>
       <c r="Q94" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R94" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
@@ -9230,7 +9230,7 @@
         <v>1073</v>
       </c>
       <c r="R95" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
@@ -9284,10 +9284,10 @@
         <v>750</v>
       </c>
       <c r="Q96" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R96" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
@@ -9341,10 +9341,10 @@
         <v>750</v>
       </c>
       <c r="Q97" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R97" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
@@ -9401,7 +9401,7 @@
         <v>1074</v>
       </c>
       <c r="R98" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
@@ -9455,10 +9455,10 @@
         <v>750</v>
       </c>
       <c r="Q99" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R99" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
@@ -9515,7 +9515,7 @@
         <v>1073</v>
       </c>
       <c r="R100" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
@@ -9572,7 +9572,7 @@
         <v>1073</v>
       </c>
       <c r="R101" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
@@ -9629,7 +9629,7 @@
         <v>1073</v>
       </c>
       <c r="R102" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
@@ -9686,7 +9686,7 @@
         <v>1073</v>
       </c>
       <c r="R103" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
@@ -9740,10 +9740,10 @@
         <v>750</v>
       </c>
       <c r="Q104" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R104" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
@@ -9797,10 +9797,10 @@
         <v>750</v>
       </c>
       <c r="Q105" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R105" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
@@ -9854,10 +9854,10 @@
         <v>750</v>
       </c>
       <c r="Q106" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R106" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
@@ -9911,10 +9911,10 @@
         <v>750</v>
       </c>
       <c r="Q107" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R107" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
@@ -9968,10 +9968,10 @@
         <v>750</v>
       </c>
       <c r="Q108" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R108" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
@@ -10025,10 +10025,10 @@
         <v>750</v>
       </c>
       <c r="Q109" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R109" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
@@ -10082,10 +10082,10 @@
         <v>750</v>
       </c>
       <c r="Q110" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R110" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
@@ -10139,10 +10139,10 @@
         <v>750</v>
       </c>
       <c r="Q111" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R111" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
@@ -10199,7 +10199,7 @@
         <v>1074</v>
       </c>
       <c r="R112" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
@@ -10256,7 +10256,7 @@
         <v>1074</v>
       </c>
       <c r="R113" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
@@ -10313,7 +10313,7 @@
         <v>1074</v>
       </c>
       <c r="R114" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
@@ -10367,10 +10367,10 @@
         <v>750</v>
       </c>
       <c r="Q115" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R115" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
@@ -10424,10 +10424,10 @@
         <v>750</v>
       </c>
       <c r="Q116" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R116" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
@@ -10481,10 +10481,10 @@
         <v>750</v>
       </c>
       <c r="Q117" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R117" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
@@ -10541,7 +10541,7 @@
         <v>1073</v>
       </c>
       <c r="R118" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
@@ -10598,7 +10598,7 @@
         <v>1073</v>
       </c>
       <c r="R119" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
@@ -10655,7 +10655,7 @@
         <v>1073</v>
       </c>
       <c r="R120" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
@@ -10712,7 +10712,7 @@
         <v>1073</v>
       </c>
       <c r="R121" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
@@ -10766,10 +10766,10 @@
         <v>750</v>
       </c>
       <c r="Q122" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R122" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
@@ -10823,10 +10823,10 @@
         <v>750</v>
       </c>
       <c r="Q123" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R123" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
@@ -10880,10 +10880,10 @@
         <v>750</v>
       </c>
       <c r="Q124" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R124" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
@@ -10937,10 +10937,10 @@
         <v>750</v>
       </c>
       <c r="Q125" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R125" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
@@ -10994,10 +10994,10 @@
         <v>750</v>
       </c>
       <c r="Q126" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R126" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
@@ -11054,7 +11054,7 @@
         <v>1073</v>
       </c>
       <c r="R127" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
@@ -11111,7 +11111,7 @@
         <v>549</v>
       </c>
       <c r="R128" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
@@ -11168,7 +11168,7 @@
         <v>1074</v>
       </c>
       <c r="R129" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
@@ -11225,7 +11225,7 @@
         <v>1073</v>
       </c>
       <c r="R130" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
@@ -11282,7 +11282,7 @@
         <v>549</v>
       </c>
       <c r="R131" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
@@ -11339,7 +11339,7 @@
         <v>1074</v>
       </c>
       <c r="R132" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
@@ -11396,7 +11396,7 @@
         <v>1073</v>
       </c>
       <c r="R133" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
@@ -11450,10 +11450,10 @@
         <v>750</v>
       </c>
       <c r="Q134" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R134" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
@@ -11507,10 +11507,10 @@
         <v>750</v>
       </c>
       <c r="Q135" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R135" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
@@ -11567,7 +11567,7 @@
         <v>1073</v>
       </c>
       <c r="R136" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
@@ -11621,10 +11621,10 @@
         <v>750</v>
       </c>
       <c r="Q137" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R137" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
@@ -11678,10 +11678,10 @@
         <v>750</v>
       </c>
       <c r="Q138" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R138" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
@@ -11738,7 +11738,7 @@
         <v>1073</v>
       </c>
       <c r="R139" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
@@ -11795,7 +11795,7 @@
         <v>549</v>
       </c>
       <c r="R140" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
@@ -11849,10 +11849,10 @@
         <v>750</v>
       </c>
       <c r="Q141" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R141" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
@@ -11909,7 +11909,7 @@
         <v>1073</v>
       </c>
       <c r="R142" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
@@ -11966,7 +11966,7 @@
         <v>549</v>
       </c>
       <c r="R143" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
@@ -12020,10 +12020,10 @@
         <v>750</v>
       </c>
       <c r="Q144" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R144" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
@@ -12077,10 +12077,10 @@
         <v>750</v>
       </c>
       <c r="Q145" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="R145" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
@@ -12134,10 +12134,10 @@
         <v>750</v>
       </c>
       <c r="Q146" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R146" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
@@ -12191,10 +12191,10 @@
         <v>750</v>
       </c>
       <c r="Q147" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R147" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
@@ -12202,7 +12202,7 @@
         <v>726</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C148" s="2">
         <v>45436</v>
@@ -12242,16 +12242,16 @@
         <v>0</v>
       </c>
       <c r="O148" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="P148" t="s">
         <v>750</v>
       </c>
       <c r="Q148" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R148" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
@@ -12305,10 +12305,10 @@
         <v>750</v>
       </c>
       <c r="Q149" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R149" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
@@ -12365,7 +12365,7 @@
         <v>1074</v>
       </c>
       <c r="R150" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
@@ -12422,7 +12422,7 @@
         <v>1073</v>
       </c>
       <c r="R151" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
@@ -12479,7 +12479,7 @@
         <v>1074</v>
       </c>
       <c r="R152" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
@@ -12536,7 +12536,7 @@
         <v>1074</v>
       </c>
       <c r="R153" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
@@ -12590,10 +12590,10 @@
         <v>750</v>
       </c>
       <c r="Q154" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R154" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
@@ -12647,10 +12647,10 @@
         <v>750</v>
       </c>
       <c r="Q155" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R155" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
@@ -12704,10 +12704,10 @@
         <v>750</v>
       </c>
       <c r="Q156" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R156" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
@@ -12764,7 +12764,7 @@
         <v>1073</v>
       </c>
       <c r="R157" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
@@ -12821,7 +12821,7 @@
         <v>1074</v>
       </c>
       <c r="R158" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
@@ -12875,10 +12875,10 @@
         <v>750</v>
       </c>
       <c r="Q159" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R159" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
@@ -12935,7 +12935,7 @@
         <v>1072</v>
       </c>
       <c r="R160" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
@@ -12989,10 +12989,10 @@
         <v>750</v>
       </c>
       <c r="Q161" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R161" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
@@ -13049,7 +13049,7 @@
         <v>1073</v>
       </c>
       <c r="R162" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
@@ -13106,7 +13106,7 @@
         <v>549</v>
       </c>
       <c r="R163" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
@@ -13160,10 +13160,10 @@
         <v>750</v>
       </c>
       <c r="Q164" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="R164" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
@@ -13220,7 +13220,7 @@
         <v>1073</v>
       </c>
       <c r="R165" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
@@ -13277,7 +13277,7 @@
         <v>1075</v>
       </c>
       <c r="R166" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
@@ -13331,10 +13331,10 @@
         <v>750</v>
       </c>
       <c r="Q167" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R167" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
@@ -13388,10 +13388,10 @@
         <v>750</v>
       </c>
       <c r="Q168" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R168" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
@@ -13445,10 +13445,10 @@
         <v>750</v>
       </c>
       <c r="Q169" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R169" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
@@ -13502,10 +13502,10 @@
         <v>750</v>
       </c>
       <c r="Q170" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R170" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
@@ -13559,10 +13559,10 @@
         <v>750</v>
       </c>
       <c r="Q171" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R171" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
@@ -13619,7 +13619,7 @@
         <v>1073</v>
       </c>
       <c r="R172" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
@@ -13673,10 +13673,10 @@
         <v>750</v>
       </c>
       <c r="Q173" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R173" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -13730,10 +13730,10 @@
         <v>750</v>
       </c>
       <c r="Q174" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R174" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -13790,7 +13790,7 @@
         <v>1072</v>
       </c>
       <c r="R175" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
@@ -13847,7 +13847,7 @@
         <v>1074</v>
       </c>
       <c r="R176" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="177" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -13901,10 +13901,10 @@
         <v>750</v>
       </c>
       <c r="Q177" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R177" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
@@ -13958,10 +13958,10 @@
         <v>750</v>
       </c>
       <c r="Q178" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="R178" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
@@ -14015,10 +14015,10 @@
         <v>750</v>
       </c>
       <c r="Q179" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="R179" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
@@ -14075,7 +14075,7 @@
         <v>1073</v>
       </c>
       <c r="R180" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
@@ -14129,10 +14129,10 @@
         <v>750</v>
       </c>
       <c r="Q181" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R181" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
@@ -14186,10 +14186,10 @@
         <v>750</v>
       </c>
       <c r="Q182" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R182" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
@@ -14246,7 +14246,7 @@
         <v>1074</v>
       </c>
       <c r="R183" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
@@ -14254,7 +14254,7 @@
         <v>731</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C184" s="2">
         <v>45443</v>
@@ -14294,16 +14294,16 @@
         <v>0</v>
       </c>
       <c r="O184" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P184" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R184" t="s">
         <v>1110</v>
-      </c>
-      <c r="P184" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>1087</v>
-      </c>
-      <c r="R184" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
@@ -14360,15 +14360,15 @@
         <v>1074</v>
       </c>
       <c r="R185" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C186" s="2">
         <v>45443</v>
@@ -14408,21 +14408,21 @@
         <v>5.4644808743169399E-3</v>
       </c>
       <c r="O186" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="P186" t="s">
         <v>750</v>
       </c>
       <c r="Q186" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R186" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>303</v>
@@ -14474,12 +14474,12 @@
         <v>1074</v>
       </c>
       <c r="R187" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>304</v>
@@ -14531,7 +14531,7 @@
         <v>1073</v>
       </c>
       <c r="R188" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
@@ -14588,7 +14588,7 @@
         <v>1073</v>
       </c>
       <c r="R189" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
@@ -14642,10 +14642,10 @@
         <v>750</v>
       </c>
       <c r="Q190" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R190" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
@@ -14699,10 +14699,10 @@
         <v>750</v>
       </c>
       <c r="Q191" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R191" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.2">
@@ -14756,10 +14756,10 @@
         <v>750</v>
       </c>
       <c r="Q192" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R192" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
@@ -14813,10 +14813,10 @@
         <v>750</v>
       </c>
       <c r="Q193" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R193" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
@@ -14870,10 +14870,10 @@
         <v>750</v>
       </c>
       <c r="Q194" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R194" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
@@ -14927,10 +14927,10 @@
         <v>750</v>
       </c>
       <c r="Q195" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R195" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
@@ -14987,7 +14987,7 @@
         <v>1073</v>
       </c>
       <c r="R196" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
@@ -15044,7 +15044,7 @@
         <v>549</v>
       </c>
       <c r="R197" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
@@ -15101,7 +15101,7 @@
         <v>1074</v>
       </c>
       <c r="R198" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
@@ -15158,7 +15158,7 @@
         <v>1073</v>
       </c>
       <c r="R199" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
@@ -15212,10 +15212,10 @@
         <v>750</v>
       </c>
       <c r="Q200" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R200" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
@@ -15272,7 +15272,7 @@
         <v>1073</v>
       </c>
       <c r="R201" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
@@ -15329,7 +15329,7 @@
         <v>549</v>
       </c>
       <c r="R202" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
@@ -15386,7 +15386,7 @@
         <v>1073</v>
       </c>
       <c r="R203" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
@@ -15443,7 +15443,7 @@
         <v>1075</v>
       </c>
       <c r="R204" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
@@ -15497,10 +15497,10 @@
         <v>750</v>
       </c>
       <c r="Q205" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R205" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.2">
@@ -15557,7 +15557,7 @@
         <v>1073</v>
       </c>
       <c r="R206" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.2">
@@ -15611,10 +15611,10 @@
         <v>750</v>
       </c>
       <c r="Q207" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R207" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.2">
@@ -15668,10 +15668,10 @@
         <v>750</v>
       </c>
       <c r="Q208" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R208" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.2">
@@ -15725,10 +15725,10 @@
         <v>750</v>
       </c>
       <c r="Q209" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R209" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.2">
@@ -15785,12 +15785,12 @@
         <v>1074</v>
       </c>
       <c r="R210" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>327</v>
@@ -15839,15 +15839,15 @@
         <v>750</v>
       </c>
       <c r="Q211" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="R211" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>328</v>
@@ -15899,12 +15899,12 @@
         <v>1073</v>
       </c>
       <c r="R212" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>328</v>
@@ -15953,15 +15953,15 @@
         <v>750</v>
       </c>
       <c r="Q213" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R213" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>329</v>
@@ -16010,10 +16010,10 @@
         <v>750</v>
       </c>
       <c r="Q214" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="R214" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.2">
@@ -16070,7 +16070,7 @@
         <v>1074</v>
       </c>
       <c r="R215" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.2">
@@ -16127,7 +16127,7 @@
         <v>1073</v>
       </c>
       <c r="R216" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.2">
@@ -16181,10 +16181,10 @@
         <v>750</v>
       </c>
       <c r="Q217" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R217" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.2">
@@ -16241,7 +16241,7 @@
         <v>1073</v>
       </c>
       <c r="R218" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.2">
@@ -16295,10 +16295,10 @@
         <v>750</v>
       </c>
       <c r="Q219" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R219" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.2">
@@ -16352,10 +16352,10 @@
         <v>750</v>
       </c>
       <c r="Q220" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R220" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.2">
@@ -16409,10 +16409,10 @@
         <v>750</v>
       </c>
       <c r="Q221" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R221" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.2">
@@ -16469,7 +16469,7 @@
         <v>1073</v>
       </c>
       <c r="R222" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.2">
@@ -16526,7 +16526,7 @@
         <v>1073</v>
       </c>
       <c r="R223" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.2">
@@ -16583,7 +16583,7 @@
         <v>1073</v>
       </c>
       <c r="R224" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.2">
@@ -16640,7 +16640,7 @@
         <v>1074</v>
       </c>
       <c r="R225" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.2">
@@ -16697,7 +16697,7 @@
         <v>1074</v>
       </c>
       <c r="R226" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.2">
@@ -16754,7 +16754,7 @@
         <v>1074</v>
       </c>
       <c r="R227" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.2">
@@ -16808,10 +16808,10 @@
         <v>750</v>
       </c>
       <c r="Q228" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R228" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.2">
@@ -16865,10 +16865,10 @@
         <v>750</v>
       </c>
       <c r="Q229" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R229" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.2">
@@ -16922,10 +16922,10 @@
         <v>750</v>
       </c>
       <c r="Q230" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R230" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.2">
@@ -16979,10 +16979,10 @@
         <v>750</v>
       </c>
       <c r="Q231" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R231" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.2">
@@ -17036,10 +17036,10 @@
         <v>750</v>
       </c>
       <c r="Q232" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R232" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.2">
@@ -17093,10 +17093,10 @@
         <v>750</v>
       </c>
       <c r="Q233" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R233" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.2">
@@ -17150,10 +17150,10 @@
         <v>750</v>
       </c>
       <c r="Q234" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R234" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.2">
@@ -17207,10 +17207,10 @@
         <v>750</v>
       </c>
       <c r="Q235" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R235" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
         <v>1073</v>
       </c>
       <c r="R236" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.2">
@@ -17324,7 +17324,7 @@
         <v>1073</v>
       </c>
       <c r="R237" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.2">
@@ -17381,7 +17381,7 @@
         <v>1073</v>
       </c>
       <c r="R238" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.2">
@@ -17438,7 +17438,7 @@
         <v>1073</v>
       </c>
       <c r="R239" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.2">
@@ -17495,7 +17495,7 @@
         <v>1073</v>
       </c>
       <c r="R240" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.2">
@@ -17552,7 +17552,7 @@
         <v>1074</v>
       </c>
       <c r="R241" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.2">
@@ -17609,7 +17609,7 @@
         <v>1074</v>
       </c>
       <c r="R242" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.2">
@@ -17666,7 +17666,7 @@
         <v>1074</v>
       </c>
       <c r="R243" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.2">
@@ -17723,7 +17723,7 @@
         <v>1074</v>
       </c>
       <c r="R244" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.2">
@@ -17780,7 +17780,7 @@
         <v>1074</v>
       </c>
       <c r="R245" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.2">
@@ -17837,7 +17837,7 @@
         <v>1074</v>
       </c>
       <c r="R246" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.2">
@@ -17891,10 +17891,10 @@
         <v>750</v>
       </c>
       <c r="Q247" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R247" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.2">
@@ -17948,10 +17948,10 @@
         <v>750</v>
       </c>
       <c r="Q248" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R248" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.2">
@@ -18005,10 +18005,10 @@
         <v>750</v>
       </c>
       <c r="Q249" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R249" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.2">
@@ -18062,10 +18062,10 @@
         <v>750</v>
       </c>
       <c r="Q250" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R250" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.2">
@@ -18119,10 +18119,10 @@
         <v>750</v>
       </c>
       <c r="Q251" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R251" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.2">
@@ -18176,10 +18176,10 @@
         <v>750</v>
       </c>
       <c r="Q252" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R252" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.2">
@@ -18233,10 +18233,10 @@
         <v>750</v>
       </c>
       <c r="Q253" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R253" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.2">
@@ -18290,10 +18290,10 @@
         <v>750</v>
       </c>
       <c r="Q254" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R254" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.2">
@@ -18347,10 +18347,10 @@
         <v>750</v>
       </c>
       <c r="Q255" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R255" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.2">
@@ -18410,7 +18410,7 @@
         <v>1072</v>
       </c>
       <c r="R256" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.2">
@@ -18470,7 +18470,7 @@
         <v>1072</v>
       </c>
       <c r="R257" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.2">
@@ -18530,7 +18530,7 @@
         <v>1072</v>
       </c>
       <c r="R258" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.2">
@@ -18590,7 +18590,7 @@
         <v>1072</v>
       </c>
       <c r="R259" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.2">
@@ -18650,7 +18650,7 @@
         <v>1072</v>
       </c>
       <c r="R260" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.2">
@@ -18710,7 +18710,7 @@
         <v>1072</v>
       </c>
       <c r="R261" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.2">
@@ -18770,7 +18770,7 @@
         <v>1072</v>
       </c>
       <c r="R262" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.2">
@@ -18830,7 +18830,7 @@
         <v>1072</v>
       </c>
       <c r="R263" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.2">
@@ -18890,7 +18890,7 @@
         <v>1072</v>
       </c>
       <c r="R264" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.2">
@@ -18950,7 +18950,7 @@
         <v>1073</v>
       </c>
       <c r="R265" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.2">
@@ -19010,7 +19010,7 @@
         <v>1073</v>
       </c>
       <c r="R266" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.2">
@@ -19070,7 +19070,7 @@
         <v>1073</v>
       </c>
       <c r="R267" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.2">
@@ -19130,7 +19130,7 @@
         <v>1073</v>
       </c>
       <c r="R268" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.2">
@@ -19190,7 +19190,7 @@
         <v>1073</v>
       </c>
       <c r="R269" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.2">
@@ -19250,7 +19250,7 @@
         <v>1073</v>
       </c>
       <c r="R270" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.2">
@@ -19310,7 +19310,7 @@
         <v>1073</v>
       </c>
       <c r="R271" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.2">
@@ -19370,7 +19370,7 @@
         <v>1073</v>
       </c>
       <c r="R272" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.2">
@@ -19430,7 +19430,7 @@
         <v>1073</v>
       </c>
       <c r="R273" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.2">
@@ -19490,7 +19490,7 @@
         <v>1073</v>
       </c>
       <c r="R274" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.2">
@@ -19550,7 +19550,7 @@
         <v>1073</v>
       </c>
       <c r="R275" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.2">
@@ -19610,7 +19610,7 @@
         <v>1073</v>
       </c>
       <c r="R276" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.2">
@@ -19670,7 +19670,7 @@
         <v>1073</v>
       </c>
       <c r="R277" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.2">
@@ -19730,7 +19730,7 @@
         <v>1073</v>
       </c>
       <c r="R278" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.2">
@@ -19787,10 +19787,10 @@
         <v>750</v>
       </c>
       <c r="Q279" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R279" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.2">
@@ -19847,10 +19847,10 @@
         <v>750</v>
       </c>
       <c r="Q280" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R280" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.2">
@@ -19907,10 +19907,10 @@
         <v>750</v>
       </c>
       <c r="Q281" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R281" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.2">
@@ -19967,10 +19967,10 @@
         <v>750</v>
       </c>
       <c r="Q282" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R282" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.2">
@@ -20027,10 +20027,10 @@
         <v>750</v>
       </c>
       <c r="Q283" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R283" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.2">
@@ -20087,10 +20087,10 @@
         <v>750</v>
       </c>
       <c r="Q284" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R284" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.2">
@@ -20147,10 +20147,10 @@
         <v>750</v>
       </c>
       <c r="Q285" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R285" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.2">
@@ -20207,10 +20207,10 @@
         <v>750</v>
       </c>
       <c r="Q286" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R286" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.2">
@@ -20267,10 +20267,10 @@
         <v>750</v>
       </c>
       <c r="Q287" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R287" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.2">
@@ -20327,10 +20327,10 @@
         <v>750</v>
       </c>
       <c r="Q288" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R288" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.2">
@@ -20387,10 +20387,10 @@
         <v>750</v>
       </c>
       <c r="Q289" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R289" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.2">
@@ -20447,10 +20447,10 @@
         <v>750</v>
       </c>
       <c r="Q290" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R290" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.2">
@@ -20507,10 +20507,10 @@
         <v>750</v>
       </c>
       <c r="Q291" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R291" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.2">
@@ -20567,10 +20567,10 @@
         <v>750</v>
       </c>
       <c r="Q292" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R292" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.2">
@@ -20630,7 +20630,7 @@
         <v>1074</v>
       </c>
       <c r="R293" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.2">
@@ -20690,7 +20690,7 @@
         <v>1074</v>
       </c>
       <c r="R294" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.2">
@@ -20750,7 +20750,7 @@
         <v>1074</v>
       </c>
       <c r="R295" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.2">
@@ -20810,7 +20810,7 @@
         <v>1074</v>
       </c>
       <c r="R296" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.2">
@@ -20870,7 +20870,7 @@
         <v>1074</v>
       </c>
       <c r="R297" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.2">
@@ -20930,7 +20930,7 @@
         <v>1074</v>
       </c>
       <c r="R298" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.2">
@@ -20990,7 +20990,7 @@
         <v>1074</v>
       </c>
       <c r="R299" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.2">
@@ -21050,7 +21050,7 @@
         <v>1074</v>
       </c>
       <c r="R300" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.2">
@@ -21110,7 +21110,7 @@
         <v>1074</v>
       </c>
       <c r="R301" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.2">
@@ -21170,7 +21170,7 @@
         <v>1074</v>
       </c>
       <c r="R302" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.2">
@@ -21230,7 +21230,7 @@
         <v>1074</v>
       </c>
       <c r="R303" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.2">
@@ -21290,7 +21290,7 @@
         <v>1074</v>
       </c>
       <c r="R304" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.2">
@@ -21350,7 +21350,7 @@
         <v>1073</v>
       </c>
       <c r="R305" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.2">
@@ -21410,7 +21410,7 @@
         <v>1073</v>
       </c>
       <c r="R306" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.2">
@@ -21470,7 +21470,7 @@
         <v>1073</v>
       </c>
       <c r="R307" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.2">
@@ -21530,7 +21530,7 @@
         <v>1073</v>
       </c>
       <c r="R308" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.2">
@@ -21590,7 +21590,7 @@
         <v>1073</v>
       </c>
       <c r="R309" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.2">
@@ -21650,7 +21650,7 @@
         <v>1073</v>
       </c>
       <c r="R310" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.2">
@@ -21710,7 +21710,7 @@
         <v>1073</v>
       </c>
       <c r="R311" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.2">
@@ -21770,7 +21770,7 @@
         <v>1073</v>
       </c>
       <c r="R312" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.2">
@@ -21830,7 +21830,7 @@
         <v>1073</v>
       </c>
       <c r="R313" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.2">
@@ -21890,7 +21890,7 @@
         <v>1073</v>
       </c>
       <c r="R314" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.2">
@@ -21950,7 +21950,7 @@
         <v>1073</v>
       </c>
       <c r="R315" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.2">
@@ -22010,7 +22010,7 @@
         <v>1073</v>
       </c>
       <c r="R316" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.2">
@@ -22070,7 +22070,7 @@
         <v>1073</v>
       </c>
       <c r="R317" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.2">
@@ -22130,7 +22130,7 @@
         <v>1073</v>
       </c>
       <c r="R318" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.2">
@@ -22187,10 +22187,10 @@
         <v>750</v>
       </c>
       <c r="Q319" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R319" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.2">
@@ -22247,10 +22247,10 @@
         <v>750</v>
       </c>
       <c r="Q320" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R320" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.2">
@@ -22307,10 +22307,10 @@
         <v>750</v>
       </c>
       <c r="Q321" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R321" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.2">
@@ -22367,10 +22367,10 @@
         <v>750</v>
       </c>
       <c r="Q322" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R322" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.2">
@@ -22427,10 +22427,10 @@
         <v>750</v>
       </c>
       <c r="Q323" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R323" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.2">
@@ -22490,7 +22490,7 @@
         <v>1072</v>
       </c>
       <c r="R324" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.2">
@@ -22550,7 +22550,7 @@
         <v>1072</v>
       </c>
       <c r="R325" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.2">
@@ -22610,7 +22610,7 @@
         <v>1072</v>
       </c>
       <c r="R326" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.2">
@@ -22670,7 +22670,7 @@
         <v>1072</v>
       </c>
       <c r="R327" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.2">
@@ -22730,7 +22730,7 @@
         <v>1072</v>
       </c>
       <c r="R328" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.2">
@@ -22790,7 +22790,7 @@
         <v>1072</v>
       </c>
       <c r="R329" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.2">
@@ -22850,7 +22850,7 @@
         <v>1072</v>
       </c>
       <c r="R330" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.2">
@@ -22910,7 +22910,7 @@
         <v>1072</v>
       </c>
       <c r="R331" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.2">
@@ -22970,7 +22970,7 @@
         <v>1072</v>
       </c>
       <c r="R332" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.2">
@@ -23030,7 +23030,7 @@
         <v>1072</v>
       </c>
       <c r="R333" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.2">
@@ -23090,7 +23090,7 @@
         <v>1072</v>
       </c>
       <c r="R334" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.2">
@@ -23150,7 +23150,7 @@
         <v>1072</v>
       </c>
       <c r="R335" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.2">
@@ -23210,7 +23210,7 @@
         <v>1072</v>
       </c>
       <c r="R336" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.2">
@@ -23270,7 +23270,7 @@
         <v>1072</v>
       </c>
       <c r="R337" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.2">
@@ -23324,10 +23324,10 @@
         <v>750</v>
       </c>
       <c r="Q338" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R338" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.2">
@@ -23381,10 +23381,10 @@
         <v>750</v>
       </c>
       <c r="Q339" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="R339" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.2">
@@ -23441,7 +23441,7 @@
         <v>1073</v>
       </c>
       <c r="R340" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.2">
@@ -23495,10 +23495,10 @@
         <v>750</v>
       </c>
       <c r="Q341" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R341" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.2">
@@ -23555,7 +23555,7 @@
         <v>1074</v>
       </c>
       <c r="R342" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.2">
@@ -23609,10 +23609,10 @@
         <v>750</v>
       </c>
       <c r="Q343" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R343" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.2">
@@ -23666,10 +23666,10 @@
         <v>750</v>
       </c>
       <c r="Q344" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R344" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.2">
@@ -23723,10 +23723,10 @@
         <v>750</v>
       </c>
       <c r="Q345" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R345" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.2">
@@ -23780,10 +23780,10 @@
         <v>750</v>
       </c>
       <c r="Q346" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R346" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.2">
@@ -23837,10 +23837,10 @@
         <v>750</v>
       </c>
       <c r="Q347" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R347" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.2">
@@ -23894,10 +23894,10 @@
         <v>750</v>
       </c>
       <c r="Q348" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R348" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.2">
@@ -23951,10 +23951,10 @@
         <v>750</v>
       </c>
       <c r="Q349" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="R349" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.2">
@@ -24008,10 +24008,10 @@
         <v>750</v>
       </c>
       <c r="Q350" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="R350" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.2">
@@ -24065,10 +24065,10 @@
         <v>750</v>
       </c>
       <c r="Q351" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R351" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.2">
@@ -24122,10 +24122,10 @@
         <v>750</v>
       </c>
       <c r="Q352" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R352" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.2">
@@ -24133,7 +24133,7 @@
         <v>740</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C353" s="2">
         <v>45419</v>
@@ -24179,10 +24179,10 @@
         <v>750</v>
       </c>
       <c r="Q353" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R353" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.2">
@@ -24239,7 +24239,7 @@
         <v>1073</v>
       </c>
       <c r="R354" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.2">
@@ -24296,7 +24296,7 @@
         <v>1073</v>
       </c>
       <c r="R355" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.2">
@@ -24353,7 +24353,7 @@
         <v>1073</v>
       </c>
       <c r="R356" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.2">
@@ -24410,7 +24410,7 @@
         <v>1073</v>
       </c>
       <c r="R357" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.2">
@@ -24467,7 +24467,7 @@
         <v>549</v>
       </c>
       <c r="R358" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.2">
@@ -24524,7 +24524,7 @@
         <v>549</v>
       </c>
       <c r="R359" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.2">
@@ -24581,7 +24581,7 @@
         <v>549</v>
       </c>
       <c r="R360" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.2">
@@ -24638,7 +24638,7 @@
         <v>549</v>
       </c>
       <c r="R361" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.2">
@@ -24695,7 +24695,7 @@
         <v>1074</v>
       </c>
       <c r="R362" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.2">
@@ -24752,7 +24752,7 @@
         <v>1074</v>
       </c>
       <c r="R363" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.2">
@@ -24809,7 +24809,7 @@
         <v>1074</v>
       </c>
       <c r="R364" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.2">
@@ -24866,7 +24866,7 @@
         <v>1074</v>
       </c>
       <c r="R365" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.2">
@@ -24920,10 +24920,10 @@
         <v>750</v>
       </c>
       <c r="Q366" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R366" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.2">
@@ -24977,10 +24977,10 @@
         <v>750</v>
       </c>
       <c r="Q367" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R367" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.2">
@@ -25034,10 +25034,10 @@
         <v>750</v>
       </c>
       <c r="Q368" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R368" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.2">
@@ -25091,10 +25091,10 @@
         <v>750</v>
       </c>
       <c r="Q369" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R369" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.2">
@@ -25148,10 +25148,10 @@
         <v>750</v>
       </c>
       <c r="Q370" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R370" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.2">
@@ -25208,7 +25208,7 @@
         <v>1073</v>
       </c>
       <c r="R371" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.2">
@@ -25265,7 +25265,7 @@
         <v>1073</v>
       </c>
       <c r="R372" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.2">
@@ -25322,7 +25322,7 @@
         <v>1073</v>
       </c>
       <c r="R373" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.2">
@@ -25379,7 +25379,7 @@
         <v>1073</v>
       </c>
       <c r="R374" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.2">
@@ -25433,10 +25433,10 @@
         <v>750</v>
       </c>
       <c r="Q375" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R375" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.2">
@@ -25490,10 +25490,10 @@
         <v>750</v>
       </c>
       <c r="Q376" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R376" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.2">
@@ -25547,10 +25547,10 @@
         <v>750</v>
       </c>
       <c r="Q377" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R377" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.2">
@@ -25610,7 +25610,7 @@
         <v>549</v>
       </c>
       <c r="R378" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.2">
@@ -25670,7 +25670,7 @@
         <v>549</v>
       </c>
       <c r="R379" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.2">
@@ -25730,7 +25730,7 @@
         <v>549</v>
       </c>
       <c r="R380" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.2">
@@ -25790,7 +25790,7 @@
         <v>549</v>
       </c>
       <c r="R381" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.2">
@@ -25798,7 +25798,7 @@
         <v>741</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C382" s="2">
         <v>45443</v>
@@ -25838,16 +25838,16 @@
         <v>0</v>
       </c>
       <c r="O382" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="P382" t="s">
         <v>750</v>
       </c>
       <c r="Q382" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R382" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.2">
@@ -25901,10 +25901,10 @@
         <v>750</v>
       </c>
       <c r="Q383" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R383" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.2">
@@ -25958,10 +25958,10 @@
         <v>750</v>
       </c>
       <c r="Q384" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R384" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.2">
@@ -26015,10 +26015,10 @@
         <v>750</v>
       </c>
       <c r="Q385" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R385" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.2">
@@ -26072,10 +26072,10 @@
         <v>750</v>
       </c>
       <c r="Q386" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R386" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="387" spans="1:18" x14ac:dyDescent="0.2">
@@ -26129,10 +26129,10 @@
         <v>750</v>
       </c>
       <c r="Q387" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R387" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.2">
@@ -26186,10 +26186,10 @@
         <v>750</v>
       </c>
       <c r="Q388" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R388" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.2">
@@ -26243,10 +26243,10 @@
         <v>750</v>
       </c>
       <c r="Q389" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="R389" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.2">
@@ -26300,10 +26300,10 @@
         <v>750</v>
       </c>
       <c r="Q390" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R390" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.2">
@@ -26357,10 +26357,10 @@
         <v>750</v>
       </c>
       <c r="Q391" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R391" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.2">
@@ -26414,10 +26414,10 @@
         <v>750</v>
       </c>
       <c r="Q392" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R392" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="393" spans="1:18" x14ac:dyDescent="0.2">
@@ -26471,10 +26471,10 @@
         <v>750</v>
       </c>
       <c r="Q393" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="R393" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.2">
@@ -26528,10 +26528,10 @@
         <v>750</v>
       </c>
       <c r="Q394" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R394" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.2">
@@ -26585,10 +26585,10 @@
         <v>750</v>
       </c>
       <c r="Q395" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R395" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.2">
@@ -26645,7 +26645,7 @@
         <v>1072</v>
       </c>
       <c r="R396" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.2">
@@ -26699,10 +26699,10 @@
         <v>750</v>
       </c>
       <c r="Q397" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R397" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.2">
@@ -26756,10 +26756,10 @@
         <v>750</v>
       </c>
       <c r="Q398" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R398" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.2">
@@ -26813,10 +26813,10 @@
         <v>750</v>
       </c>
       <c r="Q399" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="R399" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.2">
@@ -26870,10 +26870,10 @@
         <v>750</v>
       </c>
       <c r="Q400" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R400" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.2">
@@ -26927,10 +26927,10 @@
         <v>750</v>
       </c>
       <c r="Q401" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R401" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.2">
@@ -26984,10 +26984,10 @@
         <v>750</v>
       </c>
       <c r="Q402" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R402" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="403" spans="1:18" x14ac:dyDescent="0.2">
@@ -27041,10 +27041,10 @@
         <v>750</v>
       </c>
       <c r="Q403" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R403" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.2">
@@ -27098,10 +27098,10 @@
         <v>750</v>
       </c>
       <c r="Q404" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="R404" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.2">
@@ -27155,10 +27155,10 @@
         <v>750</v>
       </c>
       <c r="Q405" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="R405" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.2">
@@ -27212,10 +27212,10 @@
         <v>750</v>
       </c>
       <c r="Q406" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R406" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.2">
@@ -27269,10 +27269,10 @@
         <v>750</v>
       </c>
       <c r="Q407" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R407" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.2">
@@ -27280,7 +27280,7 @@
         <v>742</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C408" s="2">
         <v>45447</v>
@@ -27326,10 +27326,10 @@
         <v>750</v>
       </c>
       <c r="Q408" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R408" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.2">
@@ -27383,10 +27383,10 @@
         <v>750</v>
       </c>
       <c r="Q409" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R409" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.2">
@@ -27440,10 +27440,10 @@
         <v>750</v>
       </c>
       <c r="Q410" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R410" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.2">
@@ -27497,10 +27497,10 @@
         <v>750</v>
       </c>
       <c r="Q411" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R411" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.2">
@@ -27554,10 +27554,10 @@
         <v>750</v>
       </c>
       <c r="Q412" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R412" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.2">
@@ -27611,10 +27611,10 @@
         <v>750</v>
       </c>
       <c r="Q413" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R413" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.2">
@@ -27668,10 +27668,10 @@
         <v>750</v>
       </c>
       <c r="Q414" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R414" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.2">
@@ -27725,10 +27725,10 @@
         <v>750</v>
       </c>
       <c r="Q415" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R415" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.2">
@@ -27782,10 +27782,10 @@
         <v>750</v>
       </c>
       <c r="Q416" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R416" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.2">
@@ -27839,10 +27839,10 @@
         <v>750</v>
       </c>
       <c r="Q417" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R417" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.2">
@@ -27899,7 +27899,7 @@
         <v>1073</v>
       </c>
       <c r="R418" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.2">
@@ -27953,10 +27953,10 @@
         <v>750</v>
       </c>
       <c r="Q419" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R419" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.2">
@@ -28010,10 +28010,10 @@
         <v>750</v>
       </c>
       <c r="Q420" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R420" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.2">
@@ -28067,10 +28067,10 @@
         <v>750</v>
       </c>
       <c r="Q421" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R421" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.2">
@@ -28124,10 +28124,10 @@
         <v>750</v>
       </c>
       <c r="Q422" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R422" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.2">
@@ -28184,7 +28184,7 @@
         <v>1074</v>
       </c>
       <c r="R423" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.2">
@@ -28241,7 +28241,7 @@
         <v>1073</v>
       </c>
       <c r="R424" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.2">
@@ -28298,7 +28298,7 @@
         <v>1074</v>
       </c>
       <c r="R425" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.2">
@@ -28355,7 +28355,7 @@
         <v>1074</v>
       </c>
       <c r="R426" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.2">
@@ -28412,7 +28412,7 @@
         <v>1073</v>
       </c>
       <c r="R427" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.2">
@@ -28469,7 +28469,7 @@
         <v>1074</v>
       </c>
       <c r="R428" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.2">
@@ -28523,10 +28523,10 @@
         <v>750</v>
       </c>
       <c r="Q429" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R429" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.2">
@@ -28580,10 +28580,10 @@
         <v>750</v>
       </c>
       <c r="Q430" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="R430" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.2">
@@ -28637,10 +28637,10 @@
         <v>750</v>
       </c>
       <c r="Q431" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R431" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.2">
@@ -28697,7 +28697,7 @@
         <v>1072</v>
       </c>
       <c r="R432" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.2">
@@ -28754,7 +28754,7 @@
         <v>1072</v>
       </c>
       <c r="R433" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.2">
@@ -28808,10 +28808,10 @@
         <v>750</v>
       </c>
       <c r="Q434" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R434" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.2">
@@ -28865,10 +28865,10 @@
         <v>750</v>
       </c>
       <c r="Q435" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R435" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.2">
@@ -28922,10 +28922,10 @@
         <v>750</v>
       </c>
       <c r="Q436" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R436" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.2">
@@ -28979,10 +28979,10 @@
         <v>750</v>
       </c>
       <c r="Q437" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R437" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.2">
@@ -29036,10 +29036,10 @@
         <v>750</v>
       </c>
       <c r="Q438" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R438" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.2">
@@ -29093,10 +29093,10 @@
         <v>750</v>
       </c>
       <c r="Q439" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R439" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.2">
@@ -29150,10 +29150,10 @@
         <v>750</v>
       </c>
       <c r="Q440" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R440" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.2">
@@ -29207,10 +29207,10 @@
         <v>750</v>
       </c>
       <c r="Q441" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R441" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.2">
@@ -29264,10 +29264,10 @@
         <v>750</v>
       </c>
       <c r="Q442" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R442" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.2">
@@ -29321,10 +29321,10 @@
         <v>750</v>
       </c>
       <c r="Q443" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R443" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.2">
@@ -29378,10 +29378,10 @@
         <v>750</v>
       </c>
       <c r="Q444" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R444" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.2">
@@ -29435,10 +29435,10 @@
         <v>750</v>
       </c>
       <c r="Q445" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R445" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.2">
@@ -29492,10 +29492,10 @@
         <v>750</v>
       </c>
       <c r="Q446" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R446" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.2">
@@ -29549,10 +29549,10 @@
         <v>750</v>
       </c>
       <c r="Q447" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R447" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.2">
@@ -29606,10 +29606,10 @@
         <v>750</v>
       </c>
       <c r="Q448" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R448" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.2">
@@ -29666,7 +29666,7 @@
         <v>1073</v>
       </c>
       <c r="R449" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.2">
@@ -29720,10 +29720,10 @@
         <v>750</v>
       </c>
       <c r="Q450" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R450" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.2">
@@ -29777,10 +29777,10 @@
         <v>750</v>
       </c>
       <c r="Q451" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R451" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.2">
@@ -29834,10 +29834,10 @@
         <v>750</v>
       </c>
       <c r="Q452" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R452" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.2">
@@ -29891,10 +29891,10 @@
         <v>750</v>
       </c>
       <c r="Q453" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R453" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.2">
@@ -29948,10 +29948,10 @@
         <v>750</v>
       </c>
       <c r="Q454" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R454" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.2">
@@ -30005,10 +30005,10 @@
         <v>750</v>
       </c>
       <c r="Q455" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R455" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.2">
@@ -30062,10 +30062,10 @@
         <v>750</v>
       </c>
       <c r="Q456" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="R456" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.2">
@@ -30119,10 +30119,10 @@
         <v>750</v>
       </c>
       <c r="Q457" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R457" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.2">
@@ -30179,7 +30179,7 @@
         <v>1074</v>
       </c>
       <c r="R458" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.2">
@@ -30233,10 +30233,10 @@
         <v>750</v>
       </c>
       <c r="Q459" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R459" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.2">
@@ -30290,10 +30290,10 @@
         <v>750</v>
       </c>
       <c r="Q460" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="R460" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.2">
@@ -30347,10 +30347,10 @@
         <v>750</v>
       </c>
       <c r="Q461" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R461" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.2">
@@ -30404,10 +30404,10 @@
         <v>750</v>
       </c>
       <c r="Q462" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R462" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.2">
@@ -30464,7 +30464,7 @@
         <v>1072</v>
       </c>
       <c r="R463" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.2">
@@ -30518,10 +30518,10 @@
         <v>750</v>
       </c>
       <c r="Q464" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R464" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.2">
@@ -30575,10 +30575,10 @@
         <v>750</v>
       </c>
       <c r="Q465" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R465" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.2">
@@ -30632,10 +30632,10 @@
         <v>750</v>
       </c>
       <c r="Q466" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="R466" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.2">
@@ -30689,10 +30689,10 @@
         <v>750</v>
       </c>
       <c r="Q467" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R467" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.2">
@@ -30746,10 +30746,10 @@
         <v>750</v>
       </c>
       <c r="Q468" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R468" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.2">
@@ -30803,10 +30803,10 @@
         <v>750</v>
       </c>
       <c r="Q469" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R469" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.2">
@@ -30860,10 +30860,10 @@
         <v>750</v>
       </c>
       <c r="Q470" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R470" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.2">
@@ -30917,10 +30917,10 @@
         <v>750</v>
       </c>
       <c r="Q471" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="R471" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.2">
@@ -30974,10 +30974,10 @@
         <v>750</v>
       </c>
       <c r="Q472" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="R472" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.2">
@@ -31031,10 +31031,10 @@
         <v>750</v>
       </c>
       <c r="Q473" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R473" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.2">
@@ -31088,10 +31088,10 @@
         <v>750</v>
       </c>
       <c r="Q474" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R474" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.2">
@@ -31145,10 +31145,10 @@
         <v>750</v>
       </c>
       <c r="Q475" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R475" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.2">
@@ -31202,10 +31202,10 @@
         <v>750</v>
       </c>
       <c r="Q476" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R476" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.2">
@@ -31259,10 +31259,10 @@
         <v>760</v>
       </c>
       <c r="Q477" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R477" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.2">
@@ -31319,7 +31319,7 @@
         <v>1074</v>
       </c>
       <c r="R478" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.2">
@@ -31376,7 +31376,7 @@
         <v>1073</v>
       </c>
       <c r="R479" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.2">
@@ -31433,7 +31433,7 @@
         <v>1075</v>
       </c>
       <c r="R480" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.2">
@@ -31487,10 +31487,10 @@
         <v>760</v>
       </c>
       <c r="Q481" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R481" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.2">
@@ -31544,10 +31544,10 @@
         <v>760</v>
       </c>
       <c r="Q482" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R482" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.2">
@@ -31604,7 +31604,7 @@
         <v>1073</v>
       </c>
       <c r="R483" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.2">
@@ -31658,10 +31658,10 @@
         <v>760</v>
       </c>
       <c r="Q484" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R484" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.2">
@@ -31718,7 +31718,7 @@
         <v>1073</v>
       </c>
       <c r="R485" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.2">
@@ -31772,10 +31772,10 @@
         <v>760</v>
       </c>
       <c r="Q486" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R486" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.2">
@@ -31829,10 +31829,10 @@
         <v>760</v>
       </c>
       <c r="Q487" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R487" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.2">
@@ -31889,7 +31889,7 @@
         <v>1072</v>
       </c>
       <c r="R488" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.2">
@@ -31946,7 +31946,7 @@
         <v>1073</v>
       </c>
       <c r="R489" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.2">
@@ -32000,10 +32000,10 @@
         <v>760</v>
       </c>
       <c r="Q490" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R490" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.2">
@@ -32057,10 +32057,10 @@
         <v>760</v>
       </c>
       <c r="Q491" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R491" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.2">
@@ -32117,7 +32117,7 @@
         <v>1073</v>
       </c>
       <c r="R492" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.2">
@@ -32174,7 +32174,7 @@
         <v>1073</v>
       </c>
       <c r="R493" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.2">
@@ -32231,7 +32231,7 @@
         <v>1073</v>
       </c>
       <c r="R494" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="495" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -32288,7 +32288,7 @@
         <v>1074</v>
       </c>
       <c r="R495" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.2">
@@ -32345,7 +32345,7 @@
         <v>1074</v>
       </c>
       <c r="R496" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.2">
@@ -32399,10 +32399,10 @@
         <v>760</v>
       </c>
       <c r="Q497" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R497" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.2">
@@ -32456,10 +32456,10 @@
         <v>760</v>
       </c>
       <c r="Q498" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R498" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.2">
@@ -32516,7 +32516,7 @@
         <v>1074</v>
       </c>
       <c r="R499" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.2">
@@ -32573,7 +32573,7 @@
         <v>1073</v>
       </c>
       <c r="R500" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.2">
@@ -32630,7 +32630,7 @@
         <v>1073</v>
       </c>
       <c r="R501" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.2">
@@ -32684,10 +32684,10 @@
         <v>760</v>
       </c>
       <c r="Q502" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R502" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.2">
@@ -32744,7 +32744,7 @@
         <v>1074</v>
       </c>
       <c r="R503" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.2">
@@ -32798,10 +32798,10 @@
         <v>760</v>
       </c>
       <c r="Q504" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R504" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.2">
@@ -32858,7 +32858,7 @@
         <v>1073</v>
       </c>
       <c r="R505" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.2">
@@ -32912,10 +32912,10 @@
         <v>760</v>
       </c>
       <c r="Q506" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="R506" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.2">
@@ -32969,10 +32969,10 @@
         <v>760</v>
       </c>
       <c r="Q507" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R507" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.2">
@@ -33029,7 +33029,7 @@
         <v>1072</v>
       </c>
       <c r="R508" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.2">
@@ -33083,10 +33083,10 @@
         <v>760</v>
       </c>
       <c r="Q509" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R509" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.2">
@@ -33143,7 +33143,7 @@
         <v>1073</v>
       </c>
       <c r="R510" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.2">
@@ -33197,10 +33197,10 @@
         <v>760</v>
       </c>
       <c r="Q511" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R511" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.2">
@@ -33257,7 +33257,7 @@
         <v>1072</v>
       </c>
       <c r="R512" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.2">
@@ -33314,7 +33314,7 @@
         <v>1073</v>
       </c>
       <c r="R513" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.2">
@@ -33368,10 +33368,10 @@
         <v>760</v>
       </c>
       <c r="Q514" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R514" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.2">
@@ -33425,10 +33425,10 @@
         <v>760</v>
       </c>
       <c r="Q515" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R515" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.2">
@@ -33485,7 +33485,7 @@
         <v>1073</v>
       </c>
       <c r="R516" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.2">
@@ -33542,7 +33542,7 @@
         <v>1073</v>
       </c>
       <c r="R517" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.2">
@@ -33599,7 +33599,7 @@
         <v>1074</v>
       </c>
       <c r="R518" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.2">
@@ -33653,10 +33653,10 @@
         <v>760</v>
       </c>
       <c r="Q519" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R519" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.2">
@@ -33710,10 +33710,10 @@
         <v>760</v>
       </c>
       <c r="Q520" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R520" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.2">
@@ -33767,10 +33767,10 @@
         <v>760</v>
       </c>
       <c r="Q521" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R521" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.2">
@@ -33824,10 +33824,10 @@
         <v>760</v>
       </c>
       <c r="Q522" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R522" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.2">
@@ -33881,10 +33881,10 @@
         <v>760</v>
       </c>
       <c r="Q523" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R523" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.2">
@@ -33941,7 +33941,7 @@
         <v>1073</v>
       </c>
       <c r="R524" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.2">
@@ -33995,10 +33995,10 @@
         <v>760</v>
       </c>
       <c r="Q525" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R525" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.2">
@@ -34052,10 +34052,10 @@
         <v>760</v>
       </c>
       <c r="Q526" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R526" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.2">
@@ -34109,10 +34109,10 @@
         <v>760</v>
       </c>
       <c r="Q527" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R527" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.2">
@@ -34166,10 +34166,10 @@
         <v>760</v>
       </c>
       <c r="Q528" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R528" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.2">
@@ -34226,7 +34226,7 @@
         <v>1073</v>
       </c>
       <c r="R529" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.2">
@@ -34280,10 +34280,10 @@
         <v>760</v>
       </c>
       <c r="Q530" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R530" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.2">
@@ -34340,7 +34340,7 @@
         <v>1074</v>
       </c>
       <c r="R531" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.2">
@@ -34394,10 +34394,10 @@
         <v>760</v>
       </c>
       <c r="Q532" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R532" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.2">
@@ -34454,7 +34454,7 @@
         <v>1073</v>
       </c>
       <c r="R533" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.2">
@@ -34508,10 +34508,10 @@
         <v>760</v>
       </c>
       <c r="Q534" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R534" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.2">
@@ -34565,10 +34565,10 @@
         <v>760</v>
       </c>
       <c r="Q535" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R535" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.2">
@@ -34622,10 +34622,10 @@
         <v>760</v>
       </c>
       <c r="Q536" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R536" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.2">
@@ -34682,7 +34682,7 @@
         <v>1073</v>
       </c>
       <c r="R537" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.2">
@@ -34736,10 +34736,10 @@
         <v>760</v>
       </c>
       <c r="Q538" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R538" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.2">
@@ -34793,10 +34793,10 @@
         <v>760</v>
       </c>
       <c r="Q539" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R539" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.2">
@@ -34853,7 +34853,7 @@
         <v>1073</v>
       </c>
       <c r="R540" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.2">
@@ -34907,10 +34907,10 @@
         <v>760</v>
       </c>
       <c r="Q541" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R541" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.2">
@@ -34964,10 +34964,10 @@
         <v>760</v>
       </c>
       <c r="Q542" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R542" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.2">
@@ -35024,7 +35024,7 @@
         <v>1073</v>
       </c>
       <c r="R543" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.2">
@@ -35078,10 +35078,10 @@
         <v>760</v>
       </c>
       <c r="Q544" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R544" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.2">
@@ -35138,7 +35138,7 @@
         <v>1073</v>
       </c>
       <c r="R545" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.2">
@@ -35192,10 +35192,10 @@
         <v>760</v>
       </c>
       <c r="Q546" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="R546" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.2">
@@ -35249,10 +35249,10 @@
         <v>760</v>
       </c>
       <c r="Q547" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R547" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.2">
@@ -35306,10 +35306,10 @@
         <v>760</v>
       </c>
       <c r="Q548" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R548" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.2">
@@ -35363,10 +35363,10 @@
         <v>760</v>
       </c>
       <c r="Q549" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R549" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.2">
@@ -35423,7 +35423,7 @@
         <v>1073</v>
       </c>
       <c r="R550" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.2">
@@ -35477,10 +35477,10 @@
         <v>760</v>
       </c>
       <c r="Q551" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R551" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.2">
@@ -35537,7 +35537,7 @@
         <v>1073</v>
       </c>
       <c r="R552" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.2">
@@ -35591,10 +35591,10 @@
         <v>760</v>
       </c>
       <c r="Q553" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R553" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.2">
@@ -35648,10 +35648,10 @@
         <v>760</v>
       </c>
       <c r="Q554" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R554" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.2">
@@ -35705,10 +35705,10 @@
         <v>760</v>
       </c>
       <c r="Q555" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R555" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.2">
@@ -35762,10 +35762,10 @@
         <v>760</v>
       </c>
       <c r="Q556" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R556" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.2">
@@ -35819,10 +35819,10 @@
         <v>760</v>
       </c>
       <c r="Q557" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R557" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.2">
@@ -35876,10 +35876,10 @@
         <v>760</v>
       </c>
       <c r="Q558" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R558" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.2">
@@ -35933,10 +35933,10 @@
         <v>760</v>
       </c>
       <c r="Q559" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R559" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.2">
@@ -35990,10 +35990,10 @@
         <v>760</v>
       </c>
       <c r="Q560" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R560" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.2">
@@ -36047,10 +36047,10 @@
         <v>760</v>
       </c>
       <c r="Q561" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R561" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.2">
@@ -36107,7 +36107,7 @@
         <v>1073</v>
       </c>
       <c r="R562" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.2">
@@ -36164,7 +36164,7 @@
         <v>1073</v>
       </c>
       <c r="R563" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.2">
@@ -36221,7 +36221,7 @@
         <v>1073</v>
       </c>
       <c r="R564" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.2">
@@ -36278,7 +36278,7 @@
         <v>1073</v>
       </c>
       <c r="R565" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.2">
@@ -36332,10 +36332,10 @@
         <v>760</v>
       </c>
       <c r="Q566" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R566" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.2">
@@ -36389,10 +36389,10 @@
         <v>760</v>
       </c>
       <c r="Q567" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R567" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.2">
@@ -36446,10 +36446,10 @@
         <v>760</v>
       </c>
       <c r="Q568" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R568" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.2">
@@ -36503,10 +36503,10 @@
         <v>760</v>
       </c>
       <c r="Q569" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R569" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.2">
@@ -36560,10 +36560,10 @@
         <v>760</v>
       </c>
       <c r="Q570" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R570" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.2">
@@ -36617,10 +36617,10 @@
         <v>760</v>
       </c>
       <c r="Q571" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R571" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.2">
@@ -36674,10 +36674,10 @@
         <v>760</v>
       </c>
       <c r="Q572" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R572" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.2">
@@ -36731,10 +36731,10 @@
         <v>760</v>
       </c>
       <c r="Q573" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R573" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.2">
@@ -36788,10 +36788,10 @@
         <v>760</v>
       </c>
       <c r="Q574" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R574" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.2">
@@ -36845,10 +36845,10 @@
         <v>760</v>
       </c>
       <c r="Q575" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R575" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.2">
@@ -36902,10 +36902,10 @@
         <v>760</v>
       </c>
       <c r="Q576" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R576" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.2">
@@ -36959,10 +36959,10 @@
         <v>760</v>
       </c>
       <c r="Q577" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R577" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.2">
@@ -37016,10 +37016,10 @@
         <v>760</v>
       </c>
       <c r="Q578" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R578" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.2">
@@ -37073,10 +37073,10 @@
         <v>760</v>
       </c>
       <c r="Q579" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R579" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.2">
@@ -37130,10 +37130,10 @@
         <v>760</v>
       </c>
       <c r="Q580" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R580" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.2">
@@ -37187,10 +37187,10 @@
         <v>760</v>
       </c>
       <c r="Q581" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R581" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.2">
@@ -37244,10 +37244,10 @@
         <v>760</v>
       </c>
       <c r="Q582" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="R582" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.2">
@@ -37301,10 +37301,10 @@
         <v>760</v>
       </c>
       <c r="Q583" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R583" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.2">
@@ -37358,10 +37358,10 @@
         <v>760</v>
       </c>
       <c r="Q584" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R584" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.2">
@@ -37415,10 +37415,10 @@
         <v>760</v>
       </c>
       <c r="Q585" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R585" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.2">
@@ -37472,10 +37472,10 @@
         <v>760</v>
       </c>
       <c r="Q586" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R586" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.2">
@@ -37529,10 +37529,10 @@
         <v>760</v>
       </c>
       <c r="Q587" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R587" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.2">
@@ -37586,10 +37586,10 @@
         <v>760</v>
       </c>
       <c r="Q588" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R588" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.2">
@@ -37643,10 +37643,10 @@
         <v>760</v>
       </c>
       <c r="Q589" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R589" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.2">
@@ -37700,10 +37700,10 @@
         <v>760</v>
       </c>
       <c r="Q590" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R590" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.2">
@@ -37757,10 +37757,10 @@
         <v>760</v>
       </c>
       <c r="Q591" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R591" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.2">
@@ -37814,10 +37814,10 @@
         <v>760</v>
       </c>
       <c r="Q592" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R592" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.2">
@@ -37874,7 +37874,7 @@
         <v>1073</v>
       </c>
       <c r="R593" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.2">
@@ -37928,10 +37928,10 @@
         <v>760</v>
       </c>
       <c r="Q594" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R594" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.2">
@@ -37985,10 +37985,10 @@
         <v>760</v>
       </c>
       <c r="Q595" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R595" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.2">
@@ -38042,10 +38042,10 @@
         <v>760</v>
       </c>
       <c r="Q596" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R596" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.2">
@@ -38102,7 +38102,7 @@
         <v>1073</v>
       </c>
       <c r="R597" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.2">
@@ -38156,10 +38156,10 @@
         <v>760</v>
       </c>
       <c r="Q598" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="R598" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.2">
@@ -38213,10 +38213,10 @@
         <v>760</v>
       </c>
       <c r="Q599" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="R599" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.2">
@@ -38270,10 +38270,10 @@
         <v>760</v>
       </c>
       <c r="Q600" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R600" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.2">
@@ -38327,10 +38327,10 @@
         <v>760</v>
       </c>
       <c r="Q601" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R601" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.2">
@@ -38384,10 +38384,10 @@
         <v>760</v>
       </c>
       <c r="Q602" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R602" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.2">
@@ -38441,10 +38441,10 @@
         <v>760</v>
       </c>
       <c r="Q603" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R603" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.2">
@@ -38498,10 +38498,10 @@
         <v>760</v>
       </c>
       <c r="Q604" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="R604" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.2">
@@ -38555,10 +38555,10 @@
         <v>760</v>
       </c>
       <c r="Q605" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R605" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.2">
@@ -38612,10 +38612,10 @@
         <v>760</v>
       </c>
       <c r="Q606" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="R606" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.2">
@@ -38669,10 +38669,10 @@
         <v>760</v>
       </c>
       <c r="Q607" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R607" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.2">
@@ -38726,10 +38726,10 @@
         <v>760</v>
       </c>
       <c r="Q608" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R608" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.2">
@@ -38786,7 +38786,7 @@
         <v>1072</v>
       </c>
       <c r="R609" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.2">
@@ -38840,10 +38840,10 @@
         <v>760</v>
       </c>
       <c r="Q610" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="R610" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.2">
@@ -38897,10 +38897,10 @@
         <v>760</v>
       </c>
       <c r="Q611" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R611" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.2">
@@ -38954,10 +38954,10 @@
         <v>760</v>
       </c>
       <c r="Q612" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R612" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.2">
@@ -39011,10 +39011,10 @@
         <v>760</v>
       </c>
       <c r="Q613" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R613" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="614" spans="1:18" x14ac:dyDescent="0.2">
@@ -39071,7 +39071,7 @@
         <v>1073</v>
       </c>
       <c r="R614" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.2">
@@ -39128,7 +39128,7 @@
         <v>1073</v>
       </c>
       <c r="R615" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.2">
@@ -39182,10 +39182,10 @@
         <v>760</v>
       </c>
       <c r="Q616" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R616" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.2">
@@ -39239,10 +39239,10 @@
         <v>760</v>
       </c>
       <c r="Q617" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="R617" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.2">
@@ -39296,10 +39296,10 @@
         <v>760</v>
       </c>
       <c r="Q618" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="R618" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.2">
@@ -39353,10 +39353,10 @@
         <v>760</v>
       </c>
       <c r="Q619" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="R619" t="s">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.2">
@@ -39413,7 +39413,7 @@
         <v>1073</v>
       </c>
       <c r="R620" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.2">
@@ -39470,7 +39470,7 @@
         <v>549</v>
       </c>
       <c r="R621" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="622" spans="1:18" x14ac:dyDescent="0.2">
@@ -39527,7 +39527,7 @@
         <v>1074</v>
       </c>
       <c r="R622" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.2">
@@ -39584,7 +39584,7 @@
         <v>1073</v>
       </c>
       <c r="R623" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.2">
@@ -39641,7 +39641,7 @@
         <v>1074</v>
       </c>
       <c r="R624" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="625" spans="1:18" x14ac:dyDescent="0.2">
@@ -39698,7 +39698,7 @@
         <v>1073</v>
       </c>
       <c r="R625" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="626" spans="1:18" x14ac:dyDescent="0.2">
@@ -39755,7 +39755,7 @@
         <v>1074</v>
       </c>
       <c r="R626" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="627" spans="1:18" x14ac:dyDescent="0.2">
@@ -39812,7 +39812,7 @@
         <v>1073</v>
       </c>
       <c r="R627" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="628" spans="1:18" x14ac:dyDescent="0.2">
@@ -39869,7 +39869,7 @@
         <v>1074</v>
       </c>
       <c r="R628" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="629" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -39923,10 +39923,10 @@
         <v>760</v>
       </c>
       <c r="Q629" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R629" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="630" spans="1:18" x14ac:dyDescent="0.2">
@@ -39983,7 +39983,7 @@
         <v>1073</v>
       </c>
       <c r="R630" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="631" spans="1:18" x14ac:dyDescent="0.2">
@@ -40040,7 +40040,7 @@
         <v>1073</v>
       </c>
       <c r="R631" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="632" spans="1:18" x14ac:dyDescent="0.2">
@@ -40097,7 +40097,7 @@
         <v>1073</v>
       </c>
       <c r="R632" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="633" spans="1:18" x14ac:dyDescent="0.2">
@@ -40154,7 +40154,7 @@
         <v>1074</v>
       </c>
       <c r="R633" t="s">
-        <v>1077</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="634" spans="1:18" x14ac:dyDescent="0.2">
@@ -40208,10 +40208,10 @@
         <v>760</v>
       </c>
       <c r="Q634" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R634" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="635" spans="1:18" x14ac:dyDescent="0.2">
@@ -40268,7 +40268,7 @@
         <v>1074</v>
       </c>
       <c r="R635" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="636" spans="1:18" x14ac:dyDescent="0.2">
@@ -40322,10 +40322,10 @@
         <v>760</v>
       </c>
       <c r="Q636" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R636" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.2">
@@ -40382,7 +40382,7 @@
         <v>1073</v>
       </c>
       <c r="R637" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="638" spans="1:18" x14ac:dyDescent="0.2">
@@ -40439,7 +40439,7 @@
         <v>549</v>
       </c>
       <c r="R638" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="639" spans="1:18" x14ac:dyDescent="0.2">
@@ -40493,10 +40493,10 @@
         <v>760</v>
       </c>
       <c r="Q639" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="R639" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="640" spans="1:18" x14ac:dyDescent="0.2">
@@ -40553,7 +40553,7 @@
         <v>1073</v>
       </c>
       <c r="R640" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="641" spans="1:18" x14ac:dyDescent="0.2">
@@ -40610,7 +40610,7 @@
         <v>1075</v>
       </c>
       <c r="R641" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="642" spans="1:18" x14ac:dyDescent="0.2">
@@ -40667,7 +40667,7 @@
         <v>1073</v>
       </c>
       <c r="R642" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="643" spans="1:18" x14ac:dyDescent="0.2">
@@ -40724,7 +40724,7 @@
         <v>1073</v>
       </c>
       <c r="R643" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="644" spans="1:18" x14ac:dyDescent="0.2">
@@ -40778,10 +40778,10 @@
         <v>760</v>
       </c>
       <c r="Q644" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="R644" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="645" spans="1:18" x14ac:dyDescent="0.2">
@@ -40835,10 +40835,10 @@
         <v>760</v>
       </c>
       <c r="Q645" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="R645" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="646" spans="1:18" x14ac:dyDescent="0.2">
@@ -40895,7 +40895,7 @@
         <v>1073</v>
       </c>
       <c r="R646" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>

--- a/PGI master.xlsx
+++ b/PGI master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinwininger/Documents/GitHub/PGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2333999E-ABE0-5C4C-AD4A-6D239CBE21E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC8AAF0-3DF4-6744-87EA-982AF1DD7450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18060" xr2:uid="{5BADF4EC-349D-7E4C-A00F-F38B4C4743F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="1113">
   <si>
     <t>Campaign Name</t>
   </si>
@@ -3303,9 +3303,6 @@
   </si>
   <si>
     <t>Creighton Techniques 2Q24 2024-04-25</t>
-  </si>
-  <si>
-    <t>WIlls</t>
   </si>
   <si>
     <t>Historic Milwaukee</t>
@@ -3792,8 +3789,8 @@
   <dimension ref="A1:R646"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q214" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3848,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>6</v>
@@ -3857,7 +3854,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
@@ -3929,7 +3926,7 @@
         <v>1072</v>
       </c>
       <c r="R2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -3986,7 +3983,7 @@
         <v>1073</v>
       </c>
       <c r="R3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -4043,7 +4040,7 @@
         <v>549</v>
       </c>
       <c r="R4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -4100,7 +4097,7 @@
         <v>1073</v>
       </c>
       <c r="R5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -4157,7 +4154,7 @@
         <v>1074</v>
       </c>
       <c r="R6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -4214,7 +4211,7 @@
         <v>1073</v>
       </c>
       <c r="R7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -4271,7 +4268,7 @@
         <v>1073</v>
       </c>
       <c r="R8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -4328,7 +4325,7 @@
         <v>1072</v>
       </c>
       <c r="R9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -4385,7 +4382,7 @@
         <v>1073</v>
       </c>
       <c r="R10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -4442,7 +4439,7 @@
         <v>1075</v>
       </c>
       <c r="R11" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -4499,7 +4496,7 @@
         <v>1073</v>
       </c>
       <c r="R12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -4556,7 +4553,7 @@
         <v>1074</v>
       </c>
       <c r="R13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -4613,7 +4610,7 @@
         <v>1073</v>
       </c>
       <c r="R14" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -4670,7 +4667,7 @@
         <v>1074</v>
       </c>
       <c r="R15" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -5069,7 +5066,7 @@
         <v>1078</v>
       </c>
       <c r="R22" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -5297,7 +5294,7 @@
         <v>1078</v>
       </c>
       <c r="R26" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -5411,7 +5408,7 @@
         <v>1073</v>
       </c>
       <c r="R28" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -5468,7 +5465,7 @@
         <v>1072</v>
       </c>
       <c r="R29" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5525,7 +5522,7 @@
         <v>1072</v>
       </c>
       <c r="R30" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -5582,7 +5579,7 @@
         <v>1073</v>
       </c>
       <c r="R31" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -5639,7 +5636,7 @@
         <v>1081</v>
       </c>
       <c r="R32" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5696,7 +5693,7 @@
         <v>1072</v>
       </c>
       <c r="R33" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -5753,7 +5750,7 @@
         <v>1073</v>
       </c>
       <c r="R34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -5810,7 +5807,7 @@
         <v>549</v>
       </c>
       <c r="R35" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -5867,7 +5864,7 @@
         <v>1074</v>
       </c>
       <c r="R36" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -5924,7 +5921,7 @@
         <v>549</v>
       </c>
       <c r="R37" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5981,7 +5978,7 @@
         <v>1072</v>
       </c>
       <c r="R38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -6035,10 +6032,10 @@
         <v>750</v>
       </c>
       <c r="Q39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R39" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -6095,7 +6092,7 @@
         <v>549</v>
       </c>
       <c r="R40" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -6152,7 +6149,7 @@
         <v>1074</v>
       </c>
       <c r="R41" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -6209,7 +6206,7 @@
         <v>549</v>
       </c>
       <c r="R42" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -6266,7 +6263,7 @@
         <v>1074</v>
       </c>
       <c r="R43" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -6323,7 +6320,7 @@
         <v>1073</v>
       </c>
       <c r="R44" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -6377,10 +6374,10 @@
         <v>750</v>
       </c>
       <c r="Q45" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R45" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -6437,7 +6434,7 @@
         <v>1082</v>
       </c>
       <c r="R46" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -6494,7 +6491,7 @@
         <v>1082</v>
       </c>
       <c r="R47" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -6551,7 +6548,7 @@
         <v>1082</v>
       </c>
       <c r="R48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -6608,7 +6605,7 @@
         <v>1079</v>
       </c>
       <c r="R49" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -6665,7 +6662,7 @@
         <v>1082</v>
       </c>
       <c r="R50" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -6722,7 +6719,7 @@
         <v>1082</v>
       </c>
       <c r="R51" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -6779,7 +6776,7 @@
         <v>1080</v>
       </c>
       <c r="R52" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -6833,10 +6830,10 @@
         <v>750</v>
       </c>
       <c r="Q53" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R53" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -6893,7 +6890,7 @@
         <v>1081</v>
       </c>
       <c r="R54" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
@@ -7061,7 +7058,7 @@
         <v>750</v>
       </c>
       <c r="Q57" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R57" t="s">
         <v>1077</v>
@@ -7292,7 +7289,7 @@
         <v>1074</v>
       </c>
       <c r="R61" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
@@ -7349,7 +7346,7 @@
         <v>1073</v>
       </c>
       <c r="R62" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -7403,10 +7400,10 @@
         <v>750</v>
       </c>
       <c r="Q63" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R63" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
@@ -7463,7 +7460,7 @@
         <v>1073</v>
       </c>
       <c r="R64" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -7520,7 +7517,7 @@
         <v>1074</v>
       </c>
       <c r="R65" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
@@ -7577,7 +7574,7 @@
         <v>1072</v>
       </c>
       <c r="R66" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -7634,7 +7631,7 @@
         <v>1074</v>
       </c>
       <c r="R67" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
@@ -7691,7 +7688,7 @@
         <v>1078</v>
       </c>
       <c r="R68" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
@@ -7748,7 +7745,7 @@
         <v>1083</v>
       </c>
       <c r="R69" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
@@ -7805,7 +7802,7 @@
         <v>1073</v>
       </c>
       <c r="R70" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -7862,7 +7859,7 @@
         <v>1078</v>
       </c>
       <c r="R71" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
@@ -7919,7 +7916,7 @@
         <v>1078</v>
       </c>
       <c r="R72" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
@@ -7973,10 +7970,10 @@
         <v>750</v>
       </c>
       <c r="Q73" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R73" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -8030,10 +8027,10 @@
         <v>750</v>
       </c>
       <c r="Q74" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R74" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -8090,7 +8087,7 @@
         <v>1084</v>
       </c>
       <c r="R75" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
@@ -8147,7 +8144,7 @@
         <v>1074</v>
       </c>
       <c r="R76" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -8204,7 +8201,7 @@
         <v>1085</v>
       </c>
       <c r="R77" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
@@ -8261,7 +8258,7 @@
         <v>1085</v>
       </c>
       <c r="R78" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
@@ -8318,7 +8315,7 @@
         <v>1078</v>
       </c>
       <c r="R79" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
@@ -8375,7 +8372,7 @@
         <v>1086</v>
       </c>
       <c r="R80" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -8432,7 +8429,7 @@
         <v>1073</v>
       </c>
       <c r="R81" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
@@ -8489,7 +8486,7 @@
         <v>1073</v>
       </c>
       <c r="R82" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -8546,7 +8543,7 @@
         <v>1073</v>
       </c>
       <c r="R83" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -8603,7 +8600,7 @@
         <v>1073</v>
       </c>
       <c r="R84" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -8660,7 +8657,7 @@
         <v>1078</v>
       </c>
       <c r="R85" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
@@ -8717,7 +8714,7 @@
         <v>1086</v>
       </c>
       <c r="R86" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
@@ -8774,7 +8771,7 @@
         <v>1074</v>
       </c>
       <c r="R87" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
@@ -8831,7 +8828,7 @@
         <v>1074</v>
       </c>
       <c r="R88" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
@@ -8888,7 +8885,7 @@
         <v>1074</v>
       </c>
       <c r="R89" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
@@ -8945,7 +8942,7 @@
         <v>1074</v>
       </c>
       <c r="R90" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
@@ -9002,7 +8999,7 @@
         <v>1083</v>
       </c>
       <c r="R91" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
@@ -9059,7 +9056,7 @@
         <v>1083</v>
       </c>
       <c r="R92" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
@@ -9116,7 +9113,7 @@
         <v>1083</v>
       </c>
       <c r="R93" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
@@ -9173,7 +9170,7 @@
         <v>1083</v>
       </c>
       <c r="R94" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
@@ -9230,7 +9227,7 @@
         <v>1073</v>
       </c>
       <c r="R95" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
@@ -9287,7 +9284,7 @@
         <v>1078</v>
       </c>
       <c r="R96" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
@@ -9344,7 +9341,7 @@
         <v>1086</v>
       </c>
       <c r="R97" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
@@ -9401,7 +9398,7 @@
         <v>1074</v>
       </c>
       <c r="R98" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
@@ -9458,7 +9455,7 @@
         <v>1084</v>
       </c>
       <c r="R99" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
@@ -9515,7 +9512,7 @@
         <v>1073</v>
       </c>
       <c r="R100" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
@@ -9572,7 +9569,7 @@
         <v>1073</v>
       </c>
       <c r="R101" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
@@ -9629,7 +9626,7 @@
         <v>1073</v>
       </c>
       <c r="R102" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
@@ -9686,7 +9683,7 @@
         <v>1073</v>
       </c>
       <c r="R103" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
@@ -9743,7 +9740,7 @@
         <v>1078</v>
       </c>
       <c r="R104" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
@@ -9800,7 +9797,7 @@
         <v>1078</v>
       </c>
       <c r="R105" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
@@ -9857,7 +9854,7 @@
         <v>1078</v>
       </c>
       <c r="R106" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
@@ -9914,7 +9911,7 @@
         <v>1078</v>
       </c>
       <c r="R107" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
@@ -9971,7 +9968,7 @@
         <v>1086</v>
       </c>
       <c r="R108" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
@@ -10028,7 +10025,7 @@
         <v>1086</v>
       </c>
       <c r="R109" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
@@ -10085,7 +10082,7 @@
         <v>1086</v>
       </c>
       <c r="R110" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
@@ -10142,7 +10139,7 @@
         <v>1082</v>
       </c>
       <c r="R111" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
@@ -10199,7 +10196,7 @@
         <v>1074</v>
       </c>
       <c r="R112" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
@@ -10256,7 +10253,7 @@
         <v>1074</v>
       </c>
       <c r="R113" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
@@ -10313,7 +10310,7 @@
         <v>1074</v>
       </c>
       <c r="R114" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
@@ -10370,7 +10367,7 @@
         <v>1084</v>
       </c>
       <c r="R115" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
@@ -10427,7 +10424,7 @@
         <v>1084</v>
       </c>
       <c r="R116" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
@@ -10484,7 +10481,7 @@
         <v>1084</v>
       </c>
       <c r="R117" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
@@ -10541,7 +10538,7 @@
         <v>1073</v>
       </c>
       <c r="R118" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
@@ -10598,7 +10595,7 @@
         <v>1073</v>
       </c>
       <c r="R119" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
@@ -10655,7 +10652,7 @@
         <v>1073</v>
       </c>
       <c r="R120" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
@@ -10712,7 +10709,7 @@
         <v>1073</v>
       </c>
       <c r="R121" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
@@ -10769,7 +10766,7 @@
         <v>1078</v>
       </c>
       <c r="R122" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
@@ -10826,7 +10823,7 @@
         <v>1078</v>
       </c>
       <c r="R123" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
@@ -10883,7 +10880,7 @@
         <v>1078</v>
       </c>
       <c r="R124" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
@@ -10940,7 +10937,7 @@
         <v>1078</v>
       </c>
       <c r="R125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
@@ -10994,10 +10991,10 @@
         <v>750</v>
       </c>
       <c r="Q126" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R126" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
@@ -11054,7 +11051,7 @@
         <v>1073</v>
       </c>
       <c r="R127" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
@@ -11111,7 +11108,7 @@
         <v>549</v>
       </c>
       <c r="R128" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
@@ -11168,7 +11165,7 @@
         <v>1074</v>
       </c>
       <c r="R129" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
@@ -11225,7 +11222,7 @@
         <v>1073</v>
       </c>
       <c r="R130" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
@@ -11282,7 +11279,7 @@
         <v>549</v>
       </c>
       <c r="R131" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
@@ -11339,7 +11336,7 @@
         <v>1074</v>
       </c>
       <c r="R132" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
@@ -11396,7 +11393,7 @@
         <v>1073</v>
       </c>
       <c r="R133" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
@@ -11453,7 +11450,7 @@
         <v>1078</v>
       </c>
       <c r="R134" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
@@ -11510,7 +11507,7 @@
         <v>1086</v>
       </c>
       <c r="R135" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
@@ -11567,7 +11564,7 @@
         <v>1073</v>
       </c>
       <c r="R136" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
@@ -11621,10 +11618,10 @@
         <v>750</v>
       </c>
       <c r="Q137" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R137" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
@@ -11678,10 +11675,10 @@
         <v>750</v>
       </c>
       <c r="Q138" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R138" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
@@ -11738,7 +11735,7 @@
         <v>1073</v>
       </c>
       <c r="R139" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
@@ -11795,7 +11792,7 @@
         <v>549</v>
       </c>
       <c r="R140" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
@@ -11852,7 +11849,7 @@
         <v>1078</v>
       </c>
       <c r="R141" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
@@ -11909,7 +11906,7 @@
         <v>1073</v>
       </c>
       <c r="R142" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
@@ -11966,7 +11963,7 @@
         <v>549</v>
       </c>
       <c r="R143" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
@@ -12023,7 +12020,7 @@
         <v>1082</v>
       </c>
       <c r="R144" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
@@ -12080,7 +12077,7 @@
         <v>1087</v>
       </c>
       <c r="R145" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
@@ -12134,10 +12131,10 @@
         <v>750</v>
       </c>
       <c r="Q146" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R146" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
@@ -12194,7 +12191,7 @@
         <v>1081</v>
       </c>
       <c r="R147" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
@@ -12242,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="O148" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="P148" t="s">
         <v>750</v>
@@ -12251,7 +12248,7 @@
         <v>1083</v>
       </c>
       <c r="R148" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
@@ -12308,7 +12305,7 @@
         <v>1082</v>
       </c>
       <c r="R149" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
@@ -12365,7 +12362,7 @@
         <v>1074</v>
       </c>
       <c r="R150" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
@@ -12536,7 +12533,7 @@
         <v>1074</v>
       </c>
       <c r="R153" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
@@ -12593,7 +12590,7 @@
         <v>1083</v>
       </c>
       <c r="R154" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
@@ -12647,10 +12644,10 @@
         <v>750</v>
       </c>
       <c r="Q155" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R155" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
@@ -12707,7 +12704,7 @@
         <v>1081</v>
       </c>
       <c r="R156" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
@@ -12764,7 +12761,7 @@
         <v>1073</v>
       </c>
       <c r="R157" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
@@ -12821,7 +12818,7 @@
         <v>1074</v>
       </c>
       <c r="R158" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
@@ -12878,7 +12875,7 @@
         <v>1085</v>
       </c>
       <c r="R159" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
@@ -12935,7 +12932,7 @@
         <v>1072</v>
       </c>
       <c r="R160" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
@@ -12992,7 +12989,7 @@
         <v>1085</v>
       </c>
       <c r="R161" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
@@ -13049,7 +13046,7 @@
         <v>1073</v>
       </c>
       <c r="R162" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
@@ -13106,7 +13103,7 @@
         <v>549</v>
       </c>
       <c r="R163" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
@@ -13160,10 +13157,10 @@
         <v>750</v>
       </c>
       <c r="Q164" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="R164" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
@@ -13220,7 +13217,7 @@
         <v>1073</v>
       </c>
       <c r="R165" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
@@ -13277,7 +13274,7 @@
         <v>1075</v>
       </c>
       <c r="R166" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
@@ -13334,7 +13331,7 @@
         <v>1084</v>
       </c>
       <c r="R167" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
@@ -13391,7 +13388,7 @@
         <v>1084</v>
       </c>
       <c r="R168" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
@@ -13448,7 +13445,7 @@
         <v>1082</v>
       </c>
       <c r="R169" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
@@ -13505,7 +13502,7 @@
         <v>1082</v>
       </c>
       <c r="R170" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
@@ -13562,7 +13559,7 @@
         <v>1084</v>
       </c>
       <c r="R171" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
@@ -13619,7 +13616,7 @@
         <v>1073</v>
       </c>
       <c r="R172" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
@@ -13676,7 +13673,7 @@
         <v>1079</v>
       </c>
       <c r="R173" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -13733,7 +13730,7 @@
         <v>1086</v>
       </c>
       <c r="R174" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -13790,7 +13787,7 @@
         <v>1072</v>
       </c>
       <c r="R175" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
@@ -13847,7 +13844,7 @@
         <v>1074</v>
       </c>
       <c r="R176" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="177" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -13904,7 +13901,7 @@
         <v>1085</v>
       </c>
       <c r="R177" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
@@ -14018,7 +14015,7 @@
         <v>1087</v>
       </c>
       <c r="R179" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
@@ -14129,10 +14126,10 @@
         <v>750</v>
       </c>
       <c r="Q181" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R181" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
@@ -14189,7 +14186,7 @@
         <v>1081</v>
       </c>
       <c r="R182" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
@@ -14254,7 +14251,7 @@
         <v>731</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C184" s="2">
         <v>45443</v>
@@ -14294,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P184" t="s">
         <v>750</v>
@@ -14303,7 +14300,7 @@
         <v>1083</v>
       </c>
       <c r="R184" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
@@ -14365,10 +14362,10 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="C186" s="2">
         <v>45443</v>
@@ -14408,7 +14405,7 @@
         <v>5.4644808743169399E-3</v>
       </c>
       <c r="O186" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P186" t="s">
         <v>750</v>
@@ -14417,12 +14414,12 @@
         <v>1078</v>
       </c>
       <c r="R186" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>303</v>
@@ -14479,7 +14476,7 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>304</v>
@@ -14588,7 +14585,7 @@
         <v>1073</v>
       </c>
       <c r="R189" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
@@ -14645,7 +14642,7 @@
         <v>1078</v>
       </c>
       <c r="R190" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
@@ -14699,10 +14696,10 @@
         <v>750</v>
       </c>
       <c r="Q191" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R191" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.2">
@@ -14759,7 +14756,7 @@
         <v>1078</v>
       </c>
       <c r="R192" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
@@ -14816,7 +14813,7 @@
         <v>1081</v>
       </c>
       <c r="R193" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
@@ -14873,7 +14870,7 @@
         <v>1086</v>
       </c>
       <c r="R194" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
@@ -14927,10 +14924,10 @@
         <v>750</v>
       </c>
       <c r="Q195" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R195" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
@@ -14987,7 +14984,7 @@
         <v>1073</v>
       </c>
       <c r="R196" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
@@ -15044,7 +15041,7 @@
         <v>549</v>
       </c>
       <c r="R197" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
@@ -15101,7 +15098,7 @@
         <v>1074</v>
       </c>
       <c r="R198" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
@@ -15158,7 +15155,7 @@
         <v>1073</v>
       </c>
       <c r="R199" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
@@ -15212,10 +15209,10 @@
         <v>750</v>
       </c>
       <c r="Q200" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R200" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
@@ -15272,7 +15269,7 @@
         <v>1073</v>
       </c>
       <c r="R201" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
@@ -15329,7 +15326,7 @@
         <v>549</v>
       </c>
       <c r="R202" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
@@ -15386,7 +15383,7 @@
         <v>1073</v>
       </c>
       <c r="R203" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
@@ -15443,7 +15440,7 @@
         <v>1075</v>
       </c>
       <c r="R204" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
@@ -15497,10 +15494,10 @@
         <v>750</v>
       </c>
       <c r="Q205" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R205" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.2">
@@ -15557,7 +15554,7 @@
         <v>1073</v>
       </c>
       <c r="R206" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.2">
@@ -15614,7 +15611,7 @@
         <v>1079</v>
       </c>
       <c r="R207" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.2">
@@ -15671,7 +15668,7 @@
         <v>1084</v>
       </c>
       <c r="R208" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.2">
@@ -15728,7 +15725,7 @@
         <v>1078</v>
       </c>
       <c r="R209" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.2">
@@ -15785,12 +15782,12 @@
         <v>1074</v>
       </c>
       <c r="R210" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>327</v>
@@ -15847,7 +15844,7 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>328</v>
@@ -15904,7 +15901,7 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>328</v>
@@ -15961,7 +15958,7 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>329</v>
@@ -16010,7 +16007,7 @@
         <v>750</v>
       </c>
       <c r="Q214" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="R214" t="s">
         <v>1077</v>
@@ -16070,7 +16067,7 @@
         <v>1074</v>
       </c>
       <c r="R215" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.2">
@@ -16127,7 +16124,7 @@
         <v>1073</v>
       </c>
       <c r="R216" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.2">
@@ -16184,7 +16181,7 @@
         <v>1079</v>
       </c>
       <c r="R217" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.2">
@@ -16241,7 +16238,7 @@
         <v>1073</v>
       </c>
       <c r="R218" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.2">
@@ -16298,7 +16295,7 @@
         <v>1082</v>
       </c>
       <c r="R219" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.2">
@@ -16355,7 +16352,7 @@
         <v>1082</v>
       </c>
       <c r="R220" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.2">
@@ -16409,10 +16406,10 @@
         <v>750</v>
       </c>
       <c r="Q221" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R221" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.2">
@@ -16811,7 +16808,7 @@
         <v>1084</v>
       </c>
       <c r="R228" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.2">
@@ -16868,7 +16865,7 @@
         <v>1084</v>
       </c>
       <c r="R229" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.2">
@@ -16925,7 +16922,7 @@
         <v>1084</v>
       </c>
       <c r="R230" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.2">
@@ -16982,7 +16979,7 @@
         <v>1084</v>
       </c>
       <c r="R231" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.2">
@@ -17039,7 +17036,7 @@
         <v>1084</v>
       </c>
       <c r="R232" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.2">
@@ -17096,7 +17093,7 @@
         <v>1084</v>
       </c>
       <c r="R233" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.2">
@@ -17153,7 +17150,7 @@
         <v>1082</v>
       </c>
       <c r="R234" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.2">
@@ -17210,7 +17207,7 @@
         <v>1082</v>
       </c>
       <c r="R235" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.2">
@@ -17267,7 +17264,7 @@
         <v>1073</v>
       </c>
       <c r="R236" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.2">
@@ -17324,7 +17321,7 @@
         <v>1073</v>
       </c>
       <c r="R237" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.2">
@@ -17381,7 +17378,7 @@
         <v>1073</v>
       </c>
       <c r="R238" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.2">
@@ -17438,7 +17435,7 @@
         <v>1073</v>
       </c>
       <c r="R239" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.2">
@@ -17495,7 +17492,7 @@
         <v>1073</v>
       </c>
       <c r="R240" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.2">
@@ -17552,7 +17549,7 @@
         <v>1074</v>
       </c>
       <c r="R241" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.2">
@@ -17609,7 +17606,7 @@
         <v>1074</v>
       </c>
       <c r="R242" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.2">
@@ -17666,7 +17663,7 @@
         <v>1074</v>
       </c>
       <c r="R243" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.2">
@@ -17723,7 +17720,7 @@
         <v>1074</v>
       </c>
       <c r="R244" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.2">
@@ -17780,7 +17777,7 @@
         <v>1074</v>
       </c>
       <c r="R245" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.2">
@@ -17837,7 +17834,7 @@
         <v>1074</v>
       </c>
       <c r="R246" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.2">
@@ -17891,10 +17888,10 @@
         <v>750</v>
       </c>
       <c r="Q247" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R247" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.2">
@@ -17948,10 +17945,10 @@
         <v>750</v>
       </c>
       <c r="Q248" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R248" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.2">
@@ -18005,10 +18002,10 @@
         <v>750</v>
       </c>
       <c r="Q249" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R249" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.2">
@@ -18062,10 +18059,10 @@
         <v>750</v>
       </c>
       <c r="Q250" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R250" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.2">
@@ -18119,10 +18116,10 @@
         <v>750</v>
       </c>
       <c r="Q251" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R251" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.2">
@@ -18176,10 +18173,10 @@
         <v>750</v>
       </c>
       <c r="Q252" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R252" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.2">
@@ -18233,10 +18230,10 @@
         <v>750</v>
       </c>
       <c r="Q253" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R253" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.2">
@@ -18290,10 +18287,10 @@
         <v>750</v>
       </c>
       <c r="Q254" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R254" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.2">
@@ -18347,10 +18344,10 @@
         <v>750</v>
       </c>
       <c r="Q255" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R255" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.2">
@@ -18410,7 +18407,7 @@
         <v>1072</v>
       </c>
       <c r="R256" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.2">
@@ -18470,7 +18467,7 @@
         <v>1072</v>
       </c>
       <c r="R257" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.2">
@@ -18530,7 +18527,7 @@
         <v>1072</v>
       </c>
       <c r="R258" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.2">
@@ -18590,7 +18587,7 @@
         <v>1072</v>
       </c>
       <c r="R259" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.2">
@@ -18650,7 +18647,7 @@
         <v>1072</v>
       </c>
       <c r="R260" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.2">
@@ -18710,7 +18707,7 @@
         <v>1072</v>
       </c>
       <c r="R261" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.2">
@@ -18770,7 +18767,7 @@
         <v>1072</v>
       </c>
       <c r="R262" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.2">
@@ -18830,7 +18827,7 @@
         <v>1072</v>
       </c>
       <c r="R263" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.2">
@@ -18890,7 +18887,7 @@
         <v>1072</v>
       </c>
       <c r="R264" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.2">
@@ -18950,7 +18947,7 @@
         <v>1073</v>
       </c>
       <c r="R265" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.2">
@@ -19010,7 +19007,7 @@
         <v>1073</v>
       </c>
       <c r="R266" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.2">
@@ -19070,7 +19067,7 @@
         <v>1073</v>
       </c>
       <c r="R267" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.2">
@@ -19130,7 +19127,7 @@
         <v>1073</v>
       </c>
       <c r="R268" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.2">
@@ -19190,7 +19187,7 @@
         <v>1073</v>
       </c>
       <c r="R269" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.2">
@@ -19250,7 +19247,7 @@
         <v>1073</v>
       </c>
       <c r="R270" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.2">
@@ -19310,7 +19307,7 @@
         <v>1073</v>
       </c>
       <c r="R271" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.2">
@@ -19370,7 +19367,7 @@
         <v>1073</v>
       </c>
       <c r="R272" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.2">
@@ -19430,7 +19427,7 @@
         <v>1073</v>
       </c>
       <c r="R273" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.2">
@@ -19490,7 +19487,7 @@
         <v>1073</v>
       </c>
       <c r="R274" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.2">
@@ -19550,7 +19547,7 @@
         <v>1073</v>
       </c>
       <c r="R275" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.2">
@@ -19610,7 +19607,7 @@
         <v>1073</v>
       </c>
       <c r="R276" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.2">
@@ -19670,7 +19667,7 @@
         <v>1073</v>
       </c>
       <c r="R277" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.2">
@@ -19730,7 +19727,7 @@
         <v>1073</v>
       </c>
       <c r="R278" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.2">
@@ -19790,7 +19787,7 @@
         <v>1078</v>
       </c>
       <c r="R279" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.2">
@@ -19850,7 +19847,7 @@
         <v>1078</v>
       </c>
       <c r="R280" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.2">
@@ -19910,7 +19907,7 @@
         <v>1078</v>
       </c>
       <c r="R281" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.2">
@@ -19970,7 +19967,7 @@
         <v>1078</v>
       </c>
       <c r="R282" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.2">
@@ -20030,7 +20027,7 @@
         <v>1078</v>
       </c>
       <c r="R283" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.2">
@@ -20090,7 +20087,7 @@
         <v>1078</v>
       </c>
       <c r="R284" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.2">
@@ -20150,7 +20147,7 @@
         <v>1078</v>
       </c>
       <c r="R285" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.2">
@@ -20210,7 +20207,7 @@
         <v>1078</v>
       </c>
       <c r="R286" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.2">
@@ -20270,7 +20267,7 @@
         <v>1078</v>
       </c>
       <c r="R287" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.2">
@@ -20330,7 +20327,7 @@
         <v>1078</v>
       </c>
       <c r="R288" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.2">
@@ -20390,7 +20387,7 @@
         <v>1078</v>
       </c>
       <c r="R289" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.2">
@@ -20450,7 +20447,7 @@
         <v>1078</v>
       </c>
       <c r="R290" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.2">
@@ -20510,7 +20507,7 @@
         <v>1078</v>
       </c>
       <c r="R291" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.2">
@@ -20570,7 +20567,7 @@
         <v>1078</v>
       </c>
       <c r="R292" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.2">
@@ -20630,7 +20627,7 @@
         <v>1074</v>
       </c>
       <c r="R293" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.2">
@@ -20690,7 +20687,7 @@
         <v>1074</v>
       </c>
       <c r="R294" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.2">
@@ -20750,7 +20747,7 @@
         <v>1074</v>
       </c>
       <c r="R295" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.2">
@@ -20810,7 +20807,7 @@
         <v>1074</v>
       </c>
       <c r="R296" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.2">
@@ -20870,7 +20867,7 @@
         <v>1074</v>
       </c>
       <c r="R297" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.2">
@@ -20930,7 +20927,7 @@
         <v>1074</v>
       </c>
       <c r="R298" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.2">
@@ -20990,7 +20987,7 @@
         <v>1074</v>
       </c>
       <c r="R299" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.2">
@@ -21050,7 +21047,7 @@
         <v>1074</v>
       </c>
       <c r="R300" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.2">
@@ -21110,7 +21107,7 @@
         <v>1074</v>
       </c>
       <c r="R301" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.2">
@@ -21170,7 +21167,7 @@
         <v>1074</v>
       </c>
       <c r="R302" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.2">
@@ -21230,7 +21227,7 @@
         <v>1074</v>
       </c>
       <c r="R303" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.2">
@@ -21290,7 +21287,7 @@
         <v>1074</v>
       </c>
       <c r="R304" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.2">
@@ -21350,7 +21347,7 @@
         <v>1073</v>
       </c>
       <c r="R305" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.2">
@@ -21410,7 +21407,7 @@
         <v>1073</v>
       </c>
       <c r="R306" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.2">
@@ -21470,7 +21467,7 @@
         <v>1073</v>
       </c>
       <c r="R307" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.2">
@@ -21530,7 +21527,7 @@
         <v>1073</v>
       </c>
       <c r="R308" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.2">
@@ -21590,7 +21587,7 @@
         <v>1073</v>
       </c>
       <c r="R309" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.2">
@@ -21650,7 +21647,7 @@
         <v>1073</v>
       </c>
       <c r="R310" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.2">
@@ -21710,7 +21707,7 @@
         <v>1073</v>
       </c>
       <c r="R311" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.2">
@@ -21770,7 +21767,7 @@
         <v>1073</v>
       </c>
       <c r="R312" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.2">
@@ -21830,7 +21827,7 @@
         <v>1073</v>
       </c>
       <c r="R313" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.2">
@@ -21890,7 +21887,7 @@
         <v>1073</v>
       </c>
       <c r="R314" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.2">
@@ -21950,7 +21947,7 @@
         <v>1073</v>
       </c>
       <c r="R315" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.2">
@@ -22010,7 +22007,7 @@
         <v>1073</v>
       </c>
       <c r="R316" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.2">
@@ -22070,7 +22067,7 @@
         <v>1073</v>
       </c>
       <c r="R317" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.2">
@@ -22130,7 +22127,7 @@
         <v>1073</v>
       </c>
       <c r="R318" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.2">
@@ -22190,7 +22187,7 @@
         <v>1082</v>
       </c>
       <c r="R319" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.2">
@@ -22250,7 +22247,7 @@
         <v>1082</v>
       </c>
       <c r="R320" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.2">
@@ -22310,7 +22307,7 @@
         <v>1082</v>
       </c>
       <c r="R321" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.2">
@@ -22370,7 +22367,7 @@
         <v>1082</v>
       </c>
       <c r="R322" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.2">
@@ -22430,7 +22427,7 @@
         <v>1082</v>
       </c>
       <c r="R323" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.2">
@@ -22490,7 +22487,7 @@
         <v>1072</v>
       </c>
       <c r="R324" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.2">
@@ -22550,7 +22547,7 @@
         <v>1072</v>
       </c>
       <c r="R325" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.2">
@@ -22610,7 +22607,7 @@
         <v>1072</v>
       </c>
       <c r="R326" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.2">
@@ -22670,7 +22667,7 @@
         <v>1072</v>
       </c>
       <c r="R327" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.2">
@@ -22730,7 +22727,7 @@
         <v>1072</v>
       </c>
       <c r="R328" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.2">
@@ -22790,7 +22787,7 @@
         <v>1072</v>
       </c>
       <c r="R329" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.2">
@@ -22850,7 +22847,7 @@
         <v>1072</v>
       </c>
       <c r="R330" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.2">
@@ -22910,7 +22907,7 @@
         <v>1072</v>
       </c>
       <c r="R331" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.2">
@@ -22970,7 +22967,7 @@
         <v>1072</v>
       </c>
       <c r="R332" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.2">
@@ -23030,7 +23027,7 @@
         <v>1072</v>
       </c>
       <c r="R333" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.2">
@@ -23090,7 +23087,7 @@
         <v>1072</v>
       </c>
       <c r="R334" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.2">
@@ -23150,7 +23147,7 @@
         <v>1072</v>
       </c>
       <c r="R335" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.2">
@@ -23210,7 +23207,7 @@
         <v>1072</v>
       </c>
       <c r="R336" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.2">
@@ -23270,7 +23267,7 @@
         <v>1072</v>
       </c>
       <c r="R337" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.2">
@@ -23498,7 +23495,7 @@
         <v>1084</v>
       </c>
       <c r="R341" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.2">
@@ -23609,10 +23606,10 @@
         <v>750</v>
       </c>
       <c r="Q343" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R343" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.2">
@@ -23669,7 +23666,7 @@
         <v>1082</v>
       </c>
       <c r="R344" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.2">
@@ -23723,10 +23720,10 @@
         <v>750</v>
       </c>
       <c r="Q345" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R345" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.2">
@@ -23780,10 +23777,10 @@
         <v>750</v>
       </c>
       <c r="Q346" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R346" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.2">
@@ -23837,10 +23834,10 @@
         <v>750</v>
       </c>
       <c r="Q347" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R347" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.2">
@@ -23897,7 +23894,7 @@
         <v>1079</v>
       </c>
       <c r="R348" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.2">
@@ -23954,7 +23951,7 @@
         <v>1080</v>
       </c>
       <c r="R349" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.2">
@@ -24011,7 +24008,7 @@
         <v>1087</v>
       </c>
       <c r="R350" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.2">
@@ -24065,10 +24062,10 @@
         <v>750</v>
       </c>
       <c r="Q351" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R351" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.2">
@@ -24125,7 +24122,7 @@
         <v>1081</v>
       </c>
       <c r="R352" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.2">
@@ -24133,7 +24130,7 @@
         <v>740</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C353" s="2">
         <v>45419</v>
@@ -24182,7 +24179,7 @@
         <v>1083</v>
       </c>
       <c r="R353" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.2">
@@ -24239,7 +24236,7 @@
         <v>1073</v>
       </c>
       <c r="R354" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.2">
@@ -24296,7 +24293,7 @@
         <v>1073</v>
       </c>
       <c r="R355" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.2">
@@ -24353,7 +24350,7 @@
         <v>1073</v>
       </c>
       <c r="R356" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.2">
@@ -24410,7 +24407,7 @@
         <v>1073</v>
       </c>
       <c r="R357" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.2">
@@ -24467,7 +24464,7 @@
         <v>549</v>
       </c>
       <c r="R358" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.2">
@@ -24524,7 +24521,7 @@
         <v>549</v>
       </c>
       <c r="R359" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.2">
@@ -24581,7 +24578,7 @@
         <v>549</v>
       </c>
       <c r="R360" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.2">
@@ -24638,7 +24635,7 @@
         <v>549</v>
       </c>
       <c r="R361" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.2">
@@ -24695,7 +24692,7 @@
         <v>1074</v>
       </c>
       <c r="R362" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.2">
@@ -24752,7 +24749,7 @@
         <v>1074</v>
       </c>
       <c r="R363" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.2">
@@ -24809,7 +24806,7 @@
         <v>1074</v>
       </c>
       <c r="R364" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.2">
@@ -24866,7 +24863,7 @@
         <v>1074</v>
       </c>
       <c r="R365" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.2">
@@ -24923,7 +24920,7 @@
         <v>1086</v>
       </c>
       <c r="R366" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.2">
@@ -24980,7 +24977,7 @@
         <v>1086</v>
       </c>
       <c r="R367" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.2">
@@ -25037,7 +25034,7 @@
         <v>1086</v>
       </c>
       <c r="R368" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.2">
@@ -25094,7 +25091,7 @@
         <v>1086</v>
       </c>
       <c r="R369" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.2">
@@ -25148,10 +25145,10 @@
         <v>750</v>
       </c>
       <c r="Q370" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R370" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.2">
@@ -25208,7 +25205,7 @@
         <v>1073</v>
       </c>
       <c r="R371" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.2">
@@ -25265,7 +25262,7 @@
         <v>1073</v>
       </c>
       <c r="R372" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.2">
@@ -25322,7 +25319,7 @@
         <v>1073</v>
       </c>
       <c r="R373" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.2">
@@ -25379,7 +25376,7 @@
         <v>1073</v>
       </c>
       <c r="R374" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.2">
@@ -25436,7 +25433,7 @@
         <v>1082</v>
       </c>
       <c r="R375" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.2">
@@ -25493,7 +25490,7 @@
         <v>1081</v>
       </c>
       <c r="R376" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.2">
@@ -25550,7 +25547,7 @@
         <v>1082</v>
       </c>
       <c r="R377" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.2">
@@ -25610,7 +25607,7 @@
         <v>549</v>
       </c>
       <c r="R378" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.2">
@@ -25670,7 +25667,7 @@
         <v>549</v>
       </c>
       <c r="R379" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.2">
@@ -25730,7 +25727,7 @@
         <v>549</v>
       </c>
       <c r="R380" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.2">
@@ -25790,7 +25787,7 @@
         <v>549</v>
       </c>
       <c r="R381" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.2">
@@ -25798,7 +25795,7 @@
         <v>741</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C382" s="2">
         <v>45443</v>
@@ -25838,7 +25835,7 @@
         <v>0</v>
       </c>
       <c r="O382" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="P382" t="s">
         <v>750</v>
@@ -25847,7 +25844,7 @@
         <v>1083</v>
       </c>
       <c r="R382" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.2">
@@ -25901,10 +25898,10 @@
         <v>750</v>
       </c>
       <c r="Q383" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R383" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.2">
@@ -25961,7 +25958,7 @@
         <v>1081</v>
       </c>
       <c r="R384" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.2">
@@ -26015,10 +26012,10 @@
         <v>750</v>
       </c>
       <c r="Q385" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R385" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.2">
@@ -26072,10 +26069,10 @@
         <v>750</v>
       </c>
       <c r="Q386" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R386" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="387" spans="1:18" x14ac:dyDescent="0.2">
@@ -26132,7 +26129,7 @@
         <v>1085</v>
       </c>
       <c r="R387" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.2">
@@ -26189,7 +26186,7 @@
         <v>1084</v>
       </c>
       <c r="R388" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.2">
@@ -26243,10 +26240,10 @@
         <v>750</v>
       </c>
       <c r="Q389" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R389" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.2">
@@ -26300,10 +26297,10 @@
         <v>750</v>
       </c>
       <c r="Q390" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R390" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.2">
@@ -26357,10 +26354,10 @@
         <v>750</v>
       </c>
       <c r="Q391" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R391" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.2">
@@ -26414,10 +26411,10 @@
         <v>750</v>
       </c>
       <c r="Q392" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R392" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="393" spans="1:18" x14ac:dyDescent="0.2">
@@ -26471,10 +26468,10 @@
         <v>750</v>
       </c>
       <c r="Q393" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R393" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.2">
@@ -26528,10 +26525,10 @@
         <v>750</v>
       </c>
       <c r="Q394" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R394" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.2">
@@ -26585,10 +26582,10 @@
         <v>750</v>
       </c>
       <c r="Q395" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R395" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.2">
@@ -26645,7 +26642,7 @@
         <v>1072</v>
       </c>
       <c r="R396" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.2">
@@ -26702,7 +26699,7 @@
         <v>1081</v>
       </c>
       <c r="R397" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.2">
@@ -26759,7 +26756,7 @@
         <v>1086</v>
       </c>
       <c r="R398" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.2">
@@ -26813,10 +26810,10 @@
         <v>750</v>
       </c>
       <c r="Q399" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R399" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.2">
@@ -26870,10 +26867,10 @@
         <v>750</v>
       </c>
       <c r="Q400" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R400" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.2">
@@ -26927,10 +26924,10 @@
         <v>750</v>
       </c>
       <c r="Q401" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R401" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.2">
@@ -26984,10 +26981,10 @@
         <v>750</v>
       </c>
       <c r="Q402" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R402" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="403" spans="1:18" x14ac:dyDescent="0.2">
@@ -27044,7 +27041,7 @@
         <v>1079</v>
       </c>
       <c r="R403" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.2">
@@ -27101,7 +27098,7 @@
         <v>1080</v>
       </c>
       <c r="R404" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.2">
@@ -27158,7 +27155,7 @@
         <v>1087</v>
       </c>
       <c r="R405" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.2">
@@ -27212,10 +27209,10 @@
         <v>750</v>
       </c>
       <c r="Q406" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R406" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.2">
@@ -27272,7 +27269,7 @@
         <v>1081</v>
       </c>
       <c r="R407" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.2">
@@ -27280,7 +27277,7 @@
         <v>742</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C408" s="2">
         <v>45447</v>
@@ -27329,7 +27326,7 @@
         <v>1083</v>
       </c>
       <c r="R408" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.2">
@@ -27383,10 +27380,10 @@
         <v>750</v>
       </c>
       <c r="Q409" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R409" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.2">
@@ -27443,7 +27440,7 @@
         <v>1082</v>
       </c>
       <c r="R410" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.2">
@@ -27500,7 +27497,7 @@
         <v>1082</v>
       </c>
       <c r="R411" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.2">
@@ -27557,7 +27554,7 @@
         <v>1082</v>
       </c>
       <c r="R412" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.2">
@@ -27614,7 +27611,7 @@
         <v>1082</v>
       </c>
       <c r="R413" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.2">
@@ -27671,7 +27668,7 @@
         <v>1082</v>
       </c>
       <c r="R414" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.2">
@@ -27728,7 +27725,7 @@
         <v>1081</v>
       </c>
       <c r="R415" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.2">
@@ -27785,7 +27782,7 @@
         <v>1083</v>
       </c>
       <c r="R416" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.2">
@@ -27842,7 +27839,7 @@
         <v>1078</v>
       </c>
       <c r="R417" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.2">
@@ -27899,7 +27896,7 @@
         <v>1073</v>
       </c>
       <c r="R418" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.2">
@@ -27953,10 +27950,10 @@
         <v>750</v>
       </c>
       <c r="Q419" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R419" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.2">
@@ -28010,10 +28007,10 @@
         <v>750</v>
       </c>
       <c r="Q420" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R420" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.2">
@@ -28067,10 +28064,10 @@
         <v>750</v>
       </c>
       <c r="Q421" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R421" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.2">
@@ -28127,7 +28124,7 @@
         <v>1081</v>
       </c>
       <c r="R422" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.2">
@@ -28184,7 +28181,7 @@
         <v>1074</v>
       </c>
       <c r="R423" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.2">
@@ -28241,7 +28238,7 @@
         <v>1073</v>
       </c>
       <c r="R424" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.2">
@@ -28298,7 +28295,7 @@
         <v>1074</v>
       </c>
       <c r="R425" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.2">
@@ -28355,7 +28352,7 @@
         <v>1074</v>
       </c>
       <c r="R426" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.2">
@@ -28412,7 +28409,7 @@
         <v>1073</v>
       </c>
       <c r="R427" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.2">
@@ -28469,7 +28466,7 @@
         <v>1074</v>
       </c>
       <c r="R428" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.2">
@@ -28523,10 +28520,10 @@
         <v>750</v>
       </c>
       <c r="Q429" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R429" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.2">
@@ -28583,7 +28580,7 @@
         <v>1087</v>
       </c>
       <c r="R430" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.2">
@@ -28640,7 +28637,7 @@
         <v>1082</v>
       </c>
       <c r="R431" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.2">
@@ -28697,7 +28694,7 @@
         <v>1072</v>
       </c>
       <c r="R432" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.2">
@@ -28754,7 +28751,7 @@
         <v>1072</v>
       </c>
       <c r="R433" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.2">
@@ -28808,10 +28805,10 @@
         <v>750</v>
       </c>
       <c r="Q434" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R434" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.2">
@@ -28865,10 +28862,10 @@
         <v>750</v>
       </c>
       <c r="Q435" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R435" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.2">
@@ -28922,10 +28919,10 @@
         <v>750</v>
       </c>
       <c r="Q436" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R436" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.2">
@@ -28979,10 +28976,10 @@
         <v>750</v>
       </c>
       <c r="Q437" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R437" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.2">
@@ -29036,10 +29033,10 @@
         <v>750</v>
       </c>
       <c r="Q438" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R438" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.2">
@@ -29093,10 +29090,10 @@
         <v>750</v>
       </c>
       <c r="Q439" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R439" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.2">
@@ -29153,7 +29150,7 @@
         <v>1082</v>
       </c>
       <c r="R440" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.2">
@@ -29210,7 +29207,7 @@
         <v>1084</v>
       </c>
       <c r="R441" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.2">
@@ -29267,7 +29264,7 @@
         <v>1082</v>
       </c>
       <c r="R442" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.2">
@@ -29321,10 +29318,10 @@
         <v>750</v>
       </c>
       <c r="Q443" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R443" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.2">
@@ -29381,7 +29378,7 @@
         <v>1085</v>
       </c>
       <c r="R444" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.2">
@@ -29435,10 +29432,10 @@
         <v>750</v>
       </c>
       <c r="Q445" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R445" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.2">
@@ -29492,10 +29489,10 @@
         <v>750</v>
       </c>
       <c r="Q446" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R446" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.2">
@@ -29549,10 +29546,10 @@
         <v>750</v>
       </c>
       <c r="Q447" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R447" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.2">
@@ -29606,10 +29603,10 @@
         <v>750</v>
       </c>
       <c r="Q448" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R448" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.2">
@@ -29666,7 +29663,7 @@
         <v>1073</v>
       </c>
       <c r="R449" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.2">
@@ -29720,10 +29717,10 @@
         <v>750</v>
       </c>
       <c r="Q450" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R450" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.2">
@@ -29777,10 +29774,10 @@
         <v>750</v>
       </c>
       <c r="Q451" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R451" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.2">
@@ -29834,10 +29831,10 @@
         <v>750</v>
       </c>
       <c r="Q452" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R452" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.2">
@@ -29891,10 +29888,10 @@
         <v>750</v>
       </c>
       <c r="Q453" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R453" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.2">
@@ -29951,7 +29948,7 @@
         <v>1085</v>
       </c>
       <c r="R454" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.2">
@@ -30008,7 +30005,7 @@
         <v>1084</v>
       </c>
       <c r="R455" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.2">
@@ -30062,10 +30059,10 @@
         <v>750</v>
       </c>
       <c r="Q456" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R456" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.2">
@@ -30119,10 +30116,10 @@
         <v>750</v>
       </c>
       <c r="Q457" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R457" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.2">
@@ -30179,7 +30176,7 @@
         <v>1074</v>
       </c>
       <c r="R458" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.2">
@@ -30233,10 +30230,10 @@
         <v>750</v>
       </c>
       <c r="Q459" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R459" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.2">
@@ -30290,10 +30287,10 @@
         <v>750</v>
       </c>
       <c r="Q460" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R460" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.2">
@@ -30347,10 +30344,10 @@
         <v>750</v>
       </c>
       <c r="Q461" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R461" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.2">
@@ -30404,10 +30401,10 @@
         <v>750</v>
       </c>
       <c r="Q462" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R462" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.2">
@@ -30464,7 +30461,7 @@
         <v>1072</v>
       </c>
       <c r="R463" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.2">
@@ -30518,10 +30515,10 @@
         <v>750</v>
       </c>
       <c r="Q464" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R464" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.2">
@@ -30578,7 +30575,7 @@
         <v>1086</v>
       </c>
       <c r="R465" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.2">
@@ -30632,10 +30629,10 @@
         <v>750</v>
       </c>
       <c r="Q466" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R466" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.2">
@@ -30689,10 +30686,10 @@
         <v>750</v>
       </c>
       <c r="Q467" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R467" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.2">
@@ -30746,10 +30743,10 @@
         <v>750</v>
       </c>
       <c r="Q468" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R468" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.2">
@@ -30803,10 +30800,10 @@
         <v>750</v>
       </c>
       <c r="Q469" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R469" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.2">
@@ -30863,7 +30860,7 @@
         <v>1079</v>
       </c>
       <c r="R470" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.2">
@@ -30920,7 +30917,7 @@
         <v>1080</v>
       </c>
       <c r="R471" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.2">
@@ -30977,7 +30974,7 @@
         <v>1087</v>
       </c>
       <c r="R472" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.2">
@@ -31031,10 +31028,10 @@
         <v>750</v>
       </c>
       <c r="Q473" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R473" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.2">
@@ -31091,7 +31088,7 @@
         <v>1081</v>
       </c>
       <c r="R474" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.2">
@@ -31148,7 +31145,7 @@
         <v>1082</v>
       </c>
       <c r="R475" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.2">
@@ -31205,7 +31202,7 @@
         <v>1083</v>
       </c>
       <c r="R476" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.2">
@@ -31259,10 +31256,10 @@
         <v>760</v>
       </c>
       <c r="Q477" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R477" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.2">
@@ -31319,7 +31316,7 @@
         <v>1074</v>
       </c>
       <c r="R478" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.2">
@@ -31376,7 +31373,7 @@
         <v>1073</v>
       </c>
       <c r="R479" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.2">
@@ -31433,7 +31430,7 @@
         <v>1075</v>
       </c>
       <c r="R480" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.2">
@@ -31487,10 +31484,10 @@
         <v>760</v>
       </c>
       <c r="Q481" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R481" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.2">
@@ -31547,7 +31544,7 @@
         <v>1083</v>
       </c>
       <c r="R482" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.2">
@@ -31604,7 +31601,7 @@
         <v>1073</v>
       </c>
       <c r="R483" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.2">
@@ -31661,7 +31658,7 @@
         <v>1079</v>
       </c>
       <c r="R484" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.2">
@@ -31718,7 +31715,7 @@
         <v>1073</v>
       </c>
       <c r="R485" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.2">
@@ -31775,7 +31772,7 @@
         <v>1084</v>
       </c>
       <c r="R486" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.2">
@@ -31832,7 +31829,7 @@
         <v>1086</v>
       </c>
       <c r="R487" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.2">
@@ -31889,7 +31886,7 @@
         <v>1072</v>
       </c>
       <c r="R488" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.2">
@@ -31946,7 +31943,7 @@
         <v>1073</v>
       </c>
       <c r="R489" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.2">
@@ -32003,7 +32000,7 @@
         <v>1085</v>
       </c>
       <c r="R490" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.2">
@@ -32060,7 +32057,7 @@
         <v>1078</v>
       </c>
       <c r="R491" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.2">
@@ -32117,7 +32114,7 @@
         <v>1073</v>
       </c>
       <c r="R492" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.2">
@@ -32174,7 +32171,7 @@
         <v>1073</v>
       </c>
       <c r="R493" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.2">
@@ -32231,7 +32228,7 @@
         <v>1073</v>
       </c>
       <c r="R494" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="495" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -32288,7 +32285,7 @@
         <v>1074</v>
       </c>
       <c r="R495" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.2">
@@ -32345,7 +32342,7 @@
         <v>1074</v>
       </c>
       <c r="R496" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.2">
@@ -32402,7 +32399,7 @@
         <v>1086</v>
       </c>
       <c r="R497" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.2">
@@ -32456,10 +32453,10 @@
         <v>760</v>
       </c>
       <c r="Q498" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R498" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.2">
@@ -32516,7 +32513,7 @@
         <v>1074</v>
       </c>
       <c r="R499" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.2">
@@ -32573,7 +32570,7 @@
         <v>1073</v>
       </c>
       <c r="R500" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.2">
@@ -32630,7 +32627,7 @@
         <v>1073</v>
       </c>
       <c r="R501" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.2">
@@ -32687,7 +32684,7 @@
         <v>1084</v>
       </c>
       <c r="R502" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.2">
@@ -32744,7 +32741,7 @@
         <v>1074</v>
       </c>
       <c r="R503" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.2">
@@ -32801,7 +32798,7 @@
         <v>1082</v>
       </c>
       <c r="R504" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.2">
@@ -32858,7 +32855,7 @@
         <v>1073</v>
       </c>
       <c r="R505" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.2">
@@ -32912,10 +32909,10 @@
         <v>760</v>
       </c>
       <c r="Q506" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R506" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.2">
@@ -32972,7 +32969,7 @@
         <v>1084</v>
       </c>
       <c r="R507" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.2">
@@ -33029,7 +33026,7 @@
         <v>1072</v>
       </c>
       <c r="R508" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.2">
@@ -33086,7 +33083,7 @@
         <v>1086</v>
       </c>
       <c r="R509" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.2">
@@ -33143,7 +33140,7 @@
         <v>1073</v>
       </c>
       <c r="R510" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.2">
@@ -33200,7 +33197,7 @@
         <v>1081</v>
       </c>
       <c r="R511" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.2">
@@ -33257,7 +33254,7 @@
         <v>1072</v>
       </c>
       <c r="R512" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.2">
@@ -33314,7 +33311,7 @@
         <v>1073</v>
       </c>
       <c r="R513" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.2">
@@ -33368,10 +33365,10 @@
         <v>760</v>
       </c>
       <c r="Q514" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R514" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.2">
@@ -33425,10 +33422,10 @@
         <v>760</v>
       </c>
       <c r="Q515" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R515" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.2">
@@ -33485,7 +33482,7 @@
         <v>1073</v>
       </c>
       <c r="R516" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.2">
@@ -33542,7 +33539,7 @@
         <v>1073</v>
       </c>
       <c r="R517" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.2">
@@ -33599,7 +33596,7 @@
         <v>1074</v>
       </c>
       <c r="R518" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.2">
@@ -33656,7 +33653,7 @@
         <v>1078</v>
       </c>
       <c r="R519" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.2">
@@ -33713,7 +33710,7 @@
         <v>1078</v>
       </c>
       <c r="R520" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.2">
@@ -33770,7 +33767,7 @@
         <v>1078</v>
       </c>
       <c r="R521" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.2">
@@ -33827,7 +33824,7 @@
         <v>1078</v>
       </c>
       <c r="R522" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.2">
@@ -33884,7 +33881,7 @@
         <v>1085</v>
       </c>
       <c r="R523" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.2">
@@ -33941,7 +33938,7 @@
         <v>1073</v>
       </c>
       <c r="R524" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.2">
@@ -33995,10 +33992,10 @@
         <v>760</v>
       </c>
       <c r="Q525" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R525" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.2">
@@ -34055,7 +34052,7 @@
         <v>1086</v>
       </c>
       <c r="R526" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.2">
@@ -34109,10 +34106,10 @@
         <v>760</v>
       </c>
       <c r="Q527" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R527" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.2">
@@ -34169,7 +34166,7 @@
         <v>1083</v>
       </c>
       <c r="R528" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.2">
@@ -34226,7 +34223,7 @@
         <v>1073</v>
       </c>
       <c r="R529" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.2">
@@ -34283,7 +34280,7 @@
         <v>1083</v>
       </c>
       <c r="R530" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.2">
@@ -34340,7 +34337,7 @@
         <v>1074</v>
       </c>
       <c r="R531" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.2">
@@ -34397,7 +34394,7 @@
         <v>1084</v>
       </c>
       <c r="R532" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.2">
@@ -34454,7 +34451,7 @@
         <v>1073</v>
       </c>
       <c r="R533" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.2">
@@ -34511,7 +34508,7 @@
         <v>1081</v>
       </c>
       <c r="R534" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.2">
@@ -34568,7 +34565,7 @@
         <v>1084</v>
       </c>
       <c r="R535" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.2">
@@ -34625,7 +34622,7 @@
         <v>1084</v>
       </c>
       <c r="R536" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.2">
@@ -34682,7 +34679,7 @@
         <v>1073</v>
       </c>
       <c r="R537" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.2">
@@ -34736,10 +34733,10 @@
         <v>760</v>
       </c>
       <c r="Q538" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R538" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.2">
@@ -34796,7 +34793,7 @@
         <v>1084</v>
       </c>
       <c r="R539" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.2">
@@ -34853,7 +34850,7 @@
         <v>1073</v>
       </c>
       <c r="R540" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.2">
@@ -34910,7 +34907,7 @@
         <v>1084</v>
       </c>
       <c r="R541" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.2">
@@ -34964,10 +34961,10 @@
         <v>760</v>
       </c>
       <c r="Q542" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R542" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.2">
@@ -35024,7 +35021,7 @@
         <v>1073</v>
       </c>
       <c r="R543" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.2">
@@ -35078,10 +35075,10 @@
         <v>760</v>
       </c>
       <c r="Q544" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R544" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.2">
@@ -35138,7 +35135,7 @@
         <v>1073</v>
       </c>
       <c r="R545" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.2">
@@ -35195,7 +35192,7 @@
         <v>1082</v>
       </c>
       <c r="R546" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.2">
@@ -35252,7 +35249,7 @@
         <v>1084</v>
       </c>
       <c r="R547" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.2">
@@ -35306,7 +35303,7 @@
         <v>760</v>
       </c>
       <c r="Q548" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R548" t="s">
         <v>1077</v>
@@ -35366,7 +35363,7 @@
         <v>1084</v>
       </c>
       <c r="R549" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.2">
@@ -35423,7 +35420,7 @@
         <v>1073</v>
       </c>
       <c r="R550" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.2">
@@ -35477,10 +35474,10 @@
         <v>760</v>
       </c>
       <c r="Q551" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R551" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.2">
@@ -35537,7 +35534,7 @@
         <v>1073</v>
       </c>
       <c r="R552" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.2">
@@ -35594,7 +35591,7 @@
         <v>1078</v>
       </c>
       <c r="R553" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.2">
@@ -35651,7 +35648,7 @@
         <v>1078</v>
       </c>
       <c r="R554" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.2">
@@ -35708,7 +35705,7 @@
         <v>1078</v>
       </c>
       <c r="R555" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.2">
@@ -35765,7 +35762,7 @@
         <v>1078</v>
       </c>
       <c r="R556" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.2">
@@ -35822,7 +35819,7 @@
         <v>1078</v>
       </c>
       <c r="R557" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.2">
@@ -35879,7 +35876,7 @@
         <v>1084</v>
       </c>
       <c r="R558" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.2">
@@ -35936,7 +35933,7 @@
         <v>1078</v>
       </c>
       <c r="R559" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.2">
@@ -35993,7 +35990,7 @@
         <v>1084</v>
       </c>
       <c r="R560" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.2">
@@ -36050,7 +36047,7 @@
         <v>1084</v>
       </c>
       <c r="R561" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.2">
@@ -36107,7 +36104,7 @@
         <v>1073</v>
       </c>
       <c r="R562" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.2">
@@ -36164,7 +36161,7 @@
         <v>1073</v>
       </c>
       <c r="R563" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.2">
@@ -36221,7 +36218,7 @@
         <v>1073</v>
       </c>
       <c r="R564" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.2">
@@ -36278,7 +36275,7 @@
         <v>1073</v>
       </c>
       <c r="R565" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.2">
@@ -36332,10 +36329,10 @@
         <v>760</v>
       </c>
       <c r="Q566" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R566" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.2">
@@ -36389,10 +36386,10 @@
         <v>760</v>
       </c>
       <c r="Q567" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R567" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.2">
@@ -36446,10 +36443,10 @@
         <v>760</v>
       </c>
       <c r="Q568" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R568" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.2">
@@ -36503,10 +36500,10 @@
         <v>760</v>
       </c>
       <c r="Q569" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R569" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.2">
@@ -36560,10 +36557,10 @@
         <v>760</v>
       </c>
       <c r="Q570" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R570" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.2">
@@ -36617,10 +36614,10 @@
         <v>760</v>
       </c>
       <c r="Q571" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R571" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.2">
@@ -36674,10 +36671,10 @@
         <v>760</v>
       </c>
       <c r="Q572" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R572" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.2">
@@ -36731,10 +36728,10 @@
         <v>760</v>
       </c>
       <c r="Q573" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R573" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.2">
@@ -36788,10 +36785,10 @@
         <v>760</v>
       </c>
       <c r="Q574" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R574" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.2">
@@ -36845,10 +36842,10 @@
         <v>760</v>
       </c>
       <c r="Q575" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R575" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.2">
@@ -36902,10 +36899,10 @@
         <v>760</v>
       </c>
       <c r="Q576" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R576" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.2">
@@ -36959,10 +36956,10 @@
         <v>760</v>
       </c>
       <c r="Q577" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R577" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.2">
@@ -37016,10 +37013,10 @@
         <v>760</v>
       </c>
       <c r="Q578" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R578" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.2">
@@ -37073,10 +37070,10 @@
         <v>760</v>
       </c>
       <c r="Q579" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R579" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.2">
@@ -37130,10 +37127,10 @@
         <v>760</v>
       </c>
       <c r="Q580" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R580" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.2">
@@ -37187,10 +37184,10 @@
         <v>760</v>
       </c>
       <c r="Q581" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R581" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.2">
@@ -37247,7 +37244,7 @@
         <v>1087</v>
       </c>
       <c r="R582" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.2">
@@ -37304,7 +37301,7 @@
         <v>1078</v>
       </c>
       <c r="R583" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.2">
@@ -37358,10 +37355,10 @@
         <v>760</v>
       </c>
       <c r="Q584" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R584" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.2">
@@ -37415,10 +37412,10 @@
         <v>760</v>
       </c>
       <c r="Q585" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R585" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.2">
@@ -37472,10 +37469,10 @@
         <v>760</v>
       </c>
       <c r="Q586" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R586" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.2">
@@ -37529,10 +37526,10 @@
         <v>760</v>
       </c>
       <c r="Q587" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R587" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.2">
@@ -37586,10 +37583,10 @@
         <v>760</v>
       </c>
       <c r="Q588" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R588" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.2">
@@ -37643,10 +37640,10 @@
         <v>760</v>
       </c>
       <c r="Q589" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R589" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.2">
@@ -37703,7 +37700,7 @@
         <v>1084</v>
       </c>
       <c r="R590" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.2">
@@ -37757,10 +37754,10 @@
         <v>760</v>
       </c>
       <c r="Q591" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R591" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.2">
@@ -37817,7 +37814,7 @@
         <v>1085</v>
       </c>
       <c r="R592" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.2">
@@ -37874,7 +37871,7 @@
         <v>1073</v>
       </c>
       <c r="R593" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.2">
@@ -37928,10 +37925,10 @@
         <v>760</v>
       </c>
       <c r="Q594" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R594" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.2">
@@ -37985,10 +37982,10 @@
         <v>760</v>
       </c>
       <c r="Q595" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R595" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.2">
@@ -38042,10 +38039,10 @@
         <v>760</v>
       </c>
       <c r="Q596" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R596" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.2">
@@ -38102,7 +38099,7 @@
         <v>1073</v>
       </c>
       <c r="R597" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.2">
@@ -38156,10 +38153,10 @@
         <v>760</v>
       </c>
       <c r="Q598" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R598" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.2">
@@ -38216,7 +38213,7 @@
         <v>1081</v>
       </c>
       <c r="R599" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.2">
@@ -38270,10 +38267,10 @@
         <v>760</v>
       </c>
       <c r="Q600" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R600" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.2">
@@ -38327,10 +38324,10 @@
         <v>760</v>
       </c>
       <c r="Q601" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R601" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.2">
@@ -38387,7 +38384,7 @@
         <v>1085</v>
       </c>
       <c r="R602" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.2">
@@ -38444,7 +38441,7 @@
         <v>1084</v>
       </c>
       <c r="R603" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.2">
@@ -38498,10 +38495,10 @@
         <v>760</v>
       </c>
       <c r="Q604" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R604" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.2">
@@ -38555,10 +38552,10 @@
         <v>760</v>
       </c>
       <c r="Q605" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R605" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.2">
@@ -38612,10 +38609,10 @@
         <v>760</v>
       </c>
       <c r="Q606" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R606" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.2">
@@ -38669,10 +38666,10 @@
         <v>760</v>
       </c>
       <c r="Q607" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R607" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.2">
@@ -38726,10 +38723,10 @@
         <v>760</v>
       </c>
       <c r="Q608" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R608" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.2">
@@ -38786,7 +38783,7 @@
         <v>1072</v>
       </c>
       <c r="R609" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.2">
@@ -38840,10 +38837,10 @@
         <v>760</v>
       </c>
       <c r="Q610" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R610" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.2">
@@ -38897,10 +38894,10 @@
         <v>760</v>
       </c>
       <c r="Q611" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R611" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.2">
@@ -38954,10 +38951,10 @@
         <v>760</v>
       </c>
       <c r="Q612" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R612" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.2">
@@ -39014,7 +39011,7 @@
         <v>1079</v>
       </c>
       <c r="R613" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="614" spans="1:18" x14ac:dyDescent="0.2">
@@ -39071,7 +39068,7 @@
         <v>1073</v>
       </c>
       <c r="R614" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.2">
@@ -39128,7 +39125,7 @@
         <v>1073</v>
       </c>
       <c r="R615" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.2">
@@ -39182,10 +39179,10 @@
         <v>760</v>
       </c>
       <c r="Q616" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R616" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.2">
@@ -39239,10 +39236,10 @@
         <v>760</v>
       </c>
       <c r="Q617" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R617" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.2">
@@ -39299,7 +39296,7 @@
         <v>1084</v>
       </c>
       <c r="R618" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.2">
@@ -39353,10 +39350,10 @@
         <v>760</v>
       </c>
       <c r="Q619" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R619" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.2">
@@ -39413,7 +39410,7 @@
         <v>1073</v>
       </c>
       <c r="R620" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.2">
@@ -39470,7 +39467,7 @@
         <v>549</v>
       </c>
       <c r="R621" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="622" spans="1:18" x14ac:dyDescent="0.2">
@@ -39527,7 +39524,7 @@
         <v>1074</v>
       </c>
       <c r="R622" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.2">
@@ -39584,7 +39581,7 @@
         <v>1073</v>
       </c>
       <c r="R623" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.2">
@@ -39641,7 +39638,7 @@
         <v>1074</v>
       </c>
       <c r="R624" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="625" spans="1:18" x14ac:dyDescent="0.2">
@@ -39698,7 +39695,7 @@
         <v>1073</v>
       </c>
       <c r="R625" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="626" spans="1:18" x14ac:dyDescent="0.2">
@@ -39755,7 +39752,7 @@
         <v>1074</v>
       </c>
       <c r="R626" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="627" spans="1:18" x14ac:dyDescent="0.2">
@@ -39812,7 +39809,7 @@
         <v>1073</v>
       </c>
       <c r="R627" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="628" spans="1:18" x14ac:dyDescent="0.2">
@@ -39869,7 +39866,7 @@
         <v>1074</v>
       </c>
       <c r="R628" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="629" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -39923,10 +39920,10 @@
         <v>760</v>
       </c>
       <c r="Q629" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R629" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="630" spans="1:18" x14ac:dyDescent="0.2">
@@ -39983,7 +39980,7 @@
         <v>1073</v>
       </c>
       <c r="R630" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="631" spans="1:18" x14ac:dyDescent="0.2">
@@ -40040,7 +40037,7 @@
         <v>1073</v>
       </c>
       <c r="R631" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="632" spans="1:18" x14ac:dyDescent="0.2">
@@ -40097,7 +40094,7 @@
         <v>1073</v>
       </c>
       <c r="R632" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="633" spans="1:18" x14ac:dyDescent="0.2">
@@ -40154,7 +40151,7 @@
         <v>1074</v>
       </c>
       <c r="R633" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="634" spans="1:18" x14ac:dyDescent="0.2">
@@ -40208,10 +40205,10 @@
         <v>760</v>
       </c>
       <c r="Q634" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R634" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="635" spans="1:18" x14ac:dyDescent="0.2">
@@ -40268,7 +40265,7 @@
         <v>1074</v>
       </c>
       <c r="R635" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="636" spans="1:18" x14ac:dyDescent="0.2">
@@ -40325,7 +40322,7 @@
         <v>1078</v>
       </c>
       <c r="R636" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.2">
@@ -40382,7 +40379,7 @@
         <v>1073</v>
       </c>
       <c r="R637" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="638" spans="1:18" x14ac:dyDescent="0.2">
@@ -40439,7 +40436,7 @@
         <v>549</v>
       </c>
       <c r="R638" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="639" spans="1:18" x14ac:dyDescent="0.2">
@@ -40496,7 +40493,7 @@
         <v>1086</v>
       </c>
       <c r="R639" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="640" spans="1:18" x14ac:dyDescent="0.2">
@@ -40553,7 +40550,7 @@
         <v>1073</v>
       </c>
       <c r="R640" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="641" spans="1:18" x14ac:dyDescent="0.2">
@@ -40610,7 +40607,7 @@
         <v>1075</v>
       </c>
       <c r="R641" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="642" spans="1:18" x14ac:dyDescent="0.2">
@@ -40667,7 +40664,7 @@
         <v>1073</v>
       </c>
       <c r="R642" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="643" spans="1:18" x14ac:dyDescent="0.2">
@@ -40724,7 +40721,7 @@
         <v>1073</v>
       </c>
       <c r="R643" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="644" spans="1:18" x14ac:dyDescent="0.2">
@@ -40781,7 +40778,7 @@
         <v>1079</v>
       </c>
       <c r="R644" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="645" spans="1:18" x14ac:dyDescent="0.2">
@@ -40835,10 +40832,10 @@
         <v>760</v>
       </c>
       <c r="Q645" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R645" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="646" spans="1:18" x14ac:dyDescent="0.2">
@@ -40895,7 +40892,7 @@
         <v>1073</v>
       </c>
       <c r="R646" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>

--- a/PGI master.xlsx
+++ b/PGI master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinwininger/Documents/GitHub/PGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5EA481-0E70-C746-83EF-EAECE7FCC5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253263EE-E6E9-6E4E-BEAA-DE2E8A937A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18060" xr2:uid="{5BADF4EC-349D-7E4C-A00F-F38B4C4743F7}"/>
   </bookViews>
@@ -3789,7 +3789,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PGI master.xlsx
+++ b/PGI master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinwininger/Documents/GitHub/PGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253263EE-E6E9-6E4E-BEAA-DE2E8A937A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE825FC1-A0D0-6A42-87AB-2443ADABBEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18060" xr2:uid="{5BADF4EC-349D-7E4C-A00F-F38B4C4743F7}"/>
   </bookViews>
@@ -3788,13 +3788,13 @@
   <dimension ref="A1:S646"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
@@ -43190,14 +43190,14 @@
         <v>2140</v>
       </c>
       <c r="F642">
-        <f t="shared" ref="F642:F705" si="50">E642/(D642-J642)</f>
+        <f t="shared" ref="F642:F646" si="50">E642/(D642-J642)</f>
         <v>0.47650857270095748</v>
       </c>
       <c r="G642">
         <v>77</v>
       </c>
       <c r="H642">
-        <f t="shared" ref="H642:H705" si="51">G642/(D642-J642)</f>
+        <f t="shared" ref="H642:H646" si="51">G642/(D642-J642)</f>
         <v>1.7145401914940992E-2</v>
       </c>
       <c r="I642">
